--- a/QuanLyCuaHangVatLieuXayDung/template/layout.xlsx
+++ b/QuanLyCuaHangVatLieuXayDung/template/layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phan_Tich_Va_Thiet_Ke_He_Thong_Thong_Tin\DoAnCuoiKy\QuanLyNhapXuatCuaHangVatLieuXayDung_dev_Bao\QuanLyCuaHangVatLieuXayDung\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E123ED-ECD6-4BD9-A22C-CB1E8FB859EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E837C6B-5479-42EA-8D94-7909A456AEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{30F8D3DC-B8FB-4EF1-8873-75A4B0B7C454}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Tên: Gạch 2 lổ TCVN</t>
   </si>
@@ -86,7 +86,67 @@
     <t>Đăng xuất</t>
   </si>
   <si>
-    <t>Gía nhập: 990 đ/viên</t>
+    <t>Hoa Đơn Xuất</t>
+  </si>
+  <si>
+    <t>Ngày: 7/4/2025</t>
+  </si>
+  <si>
+    <t>Tên khách hàng:</t>
+  </si>
+  <si>
+    <t>SĐT:</t>
+  </si>
+  <si>
+    <t>Địa chỉ:</t>
+  </si>
+  <si>
+    <t>Stt</t>
+  </si>
+  <si>
+    <t>Mã</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Gía</t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>Tổng tiền</t>
+  </si>
+  <si>
+    <t>Phương thức thanh toán:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số tiền thanh toán: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiền giảm: </t>
+  </si>
+  <si>
+    <t>Nợ củ</t>
+  </si>
+  <si>
+    <t>Tổng hóa đơn:</t>
+  </si>
+  <si>
+    <t>Xuất hóa đơn</t>
+  </si>
+  <si>
+    <t>Mã: VatLieu001</t>
+  </si>
+  <si>
+    <t>Mã hóa đơn:</t>
+  </si>
+  <si>
+    <t>Hd00000001</t>
   </si>
 </sst>
 </file>
@@ -114,20 +174,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -146,8 +192,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,8 +245,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -335,38 +414,114 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -385,29 +540,108 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,103 +654,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,86 +1081,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>59764</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>538949</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>37353</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Oval 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E779A8D-28D0-8E0C-94E1-A9D76F18F459}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12468411" y="13155706"/>
-          <a:ext cx="479185" cy="478118"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FF0000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="4000">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>+</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12391</xdr:rowOff>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>216829</xdr:colOff>
+      <xdr:colOff>220869</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>186531</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -948,8 +1105,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4639062" y="2902415"/>
-          <a:ext cx="7279" cy="293958"/>
+          <a:off x="4643438" y="3070087"/>
+          <a:ext cx="14494" cy="164444"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1041,13 +1198,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>194469</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>193260</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
+      <xdr:colOff>194469</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
@@ -1063,9 +1220,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1416844" y="2909094"/>
-          <a:ext cx="2381" cy="317500"/>
+        <a:xfrm>
+          <a:off x="1408043" y="3092174"/>
+          <a:ext cx="1209" cy="136663"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1443,13 +1600,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>21896</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>87587</xdr:rowOff>
+      <xdr:rowOff>65176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>21896</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>109483</xdr:rowOff>
+      <xdr:rowOff>119529</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1464,8 +1621,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7484241" y="5399690"/>
-          <a:ext cx="4261069" cy="214586"/>
+          <a:off x="7529837" y="5429058"/>
+          <a:ext cx="3108281" cy="248589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1530,16 +1687,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>175172</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>249879</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>87587</xdr:rowOff>
+      <xdr:rowOff>80116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>407276</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>481982</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>113862</xdr:rowOff>
+      <xdr:rowOff>106391</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1554,8 +1711,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11898586" y="5399690"/>
-          <a:ext cx="840828" cy="218965"/>
+          <a:off x="10820761" y="5443998"/>
+          <a:ext cx="844692" cy="220511"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1600,6 +1757,628 @@
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>48172</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>530412</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104589</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577C87AF-BA13-22C5-AE97-5A05F807F957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11844231" y="5443999"/>
+          <a:ext cx="1094828" cy="218708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Tạo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> hóa đơn</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>44174</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>375477</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>55217</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C4EBEA-6406-EB6A-4613-9F16794740EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11744739" y="6758608"/>
+          <a:ext cx="938695" cy="463826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Chọn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>đối</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> tác</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>204303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>392043</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>93869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8501B6B5-E68E-B54B-5DC9-5CA8CFF4D9BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11750261" y="7371520"/>
+          <a:ext cx="949739" cy="519045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Tạo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> đối tác mới</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>53009</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>384312</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A00C59-559C-730C-A1DA-4799368F31B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11764618" y="8169965"/>
+          <a:ext cx="1093303" cy="463826"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Chọn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>vật liệu</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>58531</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>3312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>400878</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>146879</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52A255D-9F9E-3AF4-E840-DAFD63CC16CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11770140" y="8782877"/>
+          <a:ext cx="1104347" cy="519045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Tạo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> vật liệu mới</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>320261</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>121479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>27608</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphic 14" descr="Caret Down outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D85096-40FD-8108-160B-D7AC471C481F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10198652" y="11176001"/>
+          <a:ext cx="314739" cy="342348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A77D106-5861-45ED-926B-1E6EE9671C4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="620091" y="218661"/>
+          <a:ext cx="1786283" cy="1061830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+              <a:alpha val="98000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7CB95B-BEA3-4654-9CE2-90AD0399D3C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622300" y="215900"/>
+          <a:ext cx="1790700" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+              <a:alpha val="98000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1927,192 +2706,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A237127A-16A2-4193-9CBC-875260166E60}">
   <dimension ref="B1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB41" sqref="AB41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="5" max="5" width="2.26953125" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" customWidth="1"/>
+    <col min="21" max="21" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="H8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="2:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="H8" s="24" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="H9" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="2:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="24" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="H9" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="2:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="24" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="H10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="H10" s="24" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="H11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="27" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="H11" s="27" t="s">
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="H12" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
-    </row>
-    <row r="13" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="9" t="s">
+      <c r="I12" s="97"/>
+      <c r="J12" s="98"/>
+    </row>
+    <row r="13" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="99"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="98"/>
+    </row>
+    <row r="14" spans="2:10" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="H13" s="9" t="s">
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="H14" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="102"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
+    </row>
+    <row r="16" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="3"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
+      <c r="T28" s="61"/>
+      <c r="U28" s="61"/>
+      <c r="V28" s="62"/>
     </row>
     <row r="29" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="45"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="37"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="47"/>
     </row>
     <row r="30" spans="2:22" ht="6.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="45"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="46"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2121,386 +2914,413 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="34"/>
+      <c r="M30" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="69"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="70"/>
     </row>
     <row r="31" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="4"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="34"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="73"/>
     </row>
     <row r="32" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="37"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="34"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="73"/>
     </row>
     <row r="33" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="68"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="34"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="71"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="6"/>
+    </row>
+    <row r="34" spans="2:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="34"/>
+      <c r="M34" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="67"/>
+      <c r="O34" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="75" t="s">
+        <v>17</v>
+      </c>
+      <c r="S34" s="67"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="6"/>
     </row>
     <row r="35" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="72"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="34"/>
-    </row>
-    <row r="36" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="57" t="s">
+      <c r="M35" s="5"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="6"/>
+    </row>
+    <row r="36" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="23"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="34"/>
+      <c r="M36" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="77"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="6"/>
     </row>
     <row r="37" spans="2:22" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="51"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="53"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
+      <c r="F37" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="34"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="6"/>
     </row>
     <row r="38" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="54"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="56"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
+      <c r="F38" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="34"/>
-    </row>
-    <row r="39" spans="2:22" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="57" t="s">
+      <c r="M38" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" s="79"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="6"/>
+    </row>
+    <row r="39" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="50"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
+      <c r="F39" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="18"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="34"/>
-    </row>
-    <row r="40" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="51"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="53"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="6"/>
+    </row>
+    <row r="40" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
+      <c r="F40" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="34"/>
-    </row>
-    <row r="41" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="54"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="56"/>
+      <c r="M40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="63"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="6"/>
+    </row>
+    <row r="41" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32"/>
+      <c r="F41" s="105" t="s">
+        <v>2</v>
+      </c>
+      <c r="G41" s="97"/>
+      <c r="H41" s="98"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="34"/>
-    </row>
-    <row r="42" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="57" t="s">
+      <c r="M41" s="5"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
+      <c r="R41" s="81"/>
+      <c r="S41" s="81"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="6"/>
+    </row>
+    <row r="42" spans="2:22" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="58"/>
-      <c r="D42" s="59"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="11"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="98"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="34"/>
-    </row>
-    <row r="43" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="60"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="6"/>
+    </row>
+    <row r="43" spans="2:22" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="14"/>
+      <c r="F43" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="100"/>
+      <c r="H43" s="101"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="34"/>
+      <c r="M43" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="O43" s="84" t="s">
+        <v>23</v>
+      </c>
+      <c r="P43" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q43" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="R43" s="84" t="s">
+        <v>26</v>
+      </c>
+      <c r="S43" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="6"/>
     </row>
     <row r="44" spans="2:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="104"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="34"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="83"/>
+      <c r="O44" s="83"/>
+      <c r="P44" s="83"/>
+      <c r="Q44" s="83"/>
+      <c r="R44" s="83"/>
+      <c r="S44" s="83"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="6"/>
     </row>
     <row r="45" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="50"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="34"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="83"/>
+      <c r="O45" s="83"/>
+      <c r="P45" s="83"/>
+      <c r="Q45" s="83"/>
+      <c r="R45" s="83"/>
+      <c r="S45" s="83"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="6"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B46" s="51"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -2509,21 +3329,21 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="34"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="83"/>
+      <c r="O46" s="83"/>
+      <c r="P46" s="83"/>
+      <c r="Q46" s="83"/>
+      <c r="R46" s="83"/>
+      <c r="S46" s="83"/>
+      <c r="T46" s="63"/>
+      <c r="U46" s="63"/>
+      <c r="V46" s="6"/>
     </row>
     <row r="47" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="54"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="56"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -2532,23 +3352,23 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="34"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="83"/>
+      <c r="O47" s="83"/>
+      <c r="P47" s="83"/>
+      <c r="Q47" s="83"/>
+      <c r="R47" s="83"/>
+      <c r="S47" s="83"/>
+      <c r="T47" s="63"/>
+      <c r="U47" s="63"/>
+      <c r="V47" s="6"/>
     </row>
     <row r="48" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="50"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="21"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2557,21 +3377,21 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="34"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="83"/>
+      <c r="P48" s="83"/>
+      <c r="Q48" s="83"/>
+      <c r="R48" s="83"/>
+      <c r="S48" s="83"/>
+      <c r="T48" s="63"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="6"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B49" s="51"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2580,21 +3400,21 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="34"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="83"/>
+      <c r="O49" s="83"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="83"/>
+      <c r="R49" s="83"/>
+      <c r="S49" s="83"/>
+      <c r="T49" s="63"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="6"/>
     </row>
     <row r="50" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="54"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="56"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2603,23 +3423,23 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="34"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="83"/>
+      <c r="P50" s="83"/>
+      <c r="Q50" s="83"/>
+      <c r="R50" s="83"/>
+      <c r="S50" s="83"/>
+      <c r="T50" s="63"/>
+      <c r="U50" s="63"/>
+      <c r="V50" s="6"/>
     </row>
     <row r="51" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="58"/>
-      <c r="D51" s="59"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2628,21 +3448,21 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="34"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
+      <c r="Q51" s="83"/>
+      <c r="R51" s="83"/>
+      <c r="S51" s="83"/>
+      <c r="T51" s="63"/>
+      <c r="U51" s="63"/>
+      <c r="V51" s="6"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B52" s="60"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="62"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="32"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2651,21 +3471,21 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="34"/>
+      <c r="M52" s="82"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="63"/>
+      <c r="U52" s="63"/>
+      <c r="V52" s="6"/>
     </row>
     <row r="53" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="63"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="65"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="35"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -2674,23 +3494,23 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="34"/>
+      <c r="M53" s="82"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="83"/>
+      <c r="P53" s="83"/>
+      <c r="Q53" s="83"/>
+      <c r="R53" s="83"/>
+      <c r="S53" s="83"/>
+      <c r="T53" s="63"/>
+      <c r="U53" s="63"/>
+      <c r="V53" s="6"/>
     </row>
     <row r="54" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="50"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -2699,21 +3519,21 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="34"/>
+      <c r="M54" s="82"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="83"/>
+      <c r="P54" s="83"/>
+      <c r="Q54" s="83"/>
+      <c r="R54" s="83"/>
+      <c r="S54" s="83"/>
+      <c r="T54" s="63"/>
+      <c r="U54" s="63"/>
+      <c r="V54" s="6"/>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B55" s="51"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="53"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -2722,21 +3542,21 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="34"/>
+      <c r="M55" s="82"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="83"/>
+      <c r="P55" s="83"/>
+      <c r="Q55" s="83"/>
+      <c r="R55" s="83"/>
+      <c r="S55" s="83"/>
+      <c r="T55" s="63"/>
+      <c r="U55" s="63"/>
+      <c r="V55" s="6"/>
     </row>
     <row r="56" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="54"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="56"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2745,23 +3565,23 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="34"/>
+      <c r="M56" s="82"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="83"/>
+      <c r="P56" s="83"/>
+      <c r="Q56" s="83"/>
+      <c r="R56" s="83"/>
+      <c r="S56" s="83"/>
+      <c r="T56" s="63"/>
+      <c r="U56" s="63"/>
+      <c r="V56" s="6"/>
     </row>
     <row r="57" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="50"/>
+      <c r="B57" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -2770,21 +3590,21 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="34"/>
+      <c r="M57" s="82"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="83"/>
+      <c r="P57" s="83"/>
+      <c r="Q57" s="83"/>
+      <c r="R57" s="83"/>
+      <c r="S57" s="83"/>
+      <c r="T57" s="63"/>
+      <c r="U57" s="63"/>
+      <c r="V57" s="6"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B58" s="51"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="53"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -2793,21 +3613,21 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="34"/>
-    </row>
-    <row r="59" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="54"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="56"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="63"/>
+      <c r="O58" s="63"/>
+      <c r="P58" s="63"/>
+      <c r="Q58" s="63"/>
+      <c r="R58" s="63"/>
+      <c r="S58" s="63"/>
+      <c r="T58" s="63"/>
+      <c r="U58" s="63"/>
+      <c r="V58" s="6"/>
+    </row>
+    <row r="59" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="25"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -2816,23 +3636,25 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="34"/>
+      <c r="M59" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="N59" s="67"/>
+      <c r="O59" s="67"/>
+      <c r="P59" s="85"/>
+      <c r="Q59" s="86"/>
+      <c r="R59" s="87"/>
+      <c r="S59" s="63"/>
+      <c r="T59" s="63"/>
+      <c r="U59" s="63"/>
+      <c r="V59" s="6"/>
     </row>
     <row r="60" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="50"/>
+      <c r="B60" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -2841,21 +3663,21 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="34"/>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B61" s="51"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="53"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="63"/>
+      <c r="O60" s="63"/>
+      <c r="P60" s="63"/>
+      <c r="Q60" s="63"/>
+      <c r="R60" s="63"/>
+      <c r="S60" s="63"/>
+      <c r="T60" s="63"/>
+      <c r="U60" s="63"/>
+      <c r="V60" s="6"/>
+    </row>
+    <row r="61" spans="2:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -2864,21 +3686,23 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="34"/>
+      <c r="M61" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="N61" s="67"/>
+      <c r="O61" s="67"/>
+      <c r="P61" s="85"/>
+      <c r="Q61" s="86"/>
+      <c r="R61" s="87"/>
+      <c r="S61" s="63"/>
+      <c r="T61" s="63"/>
+      <c r="U61" s="63"/>
+      <c r="V61" s="6"/>
     </row>
     <row r="62" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="56"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -2887,23 +3711,23 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="34"/>
-    </row>
-    <row r="63" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="49"/>
-      <c r="D63" s="50"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="63"/>
+      <c r="O62" s="63"/>
+      <c r="P62" s="63"/>
+      <c r="Q62" s="63"/>
+      <c r="R62" s="63"/>
+      <c r="S62" s="63"/>
+      <c r="T62" s="63"/>
+      <c r="U62" s="63"/>
+      <c r="V62" s="6"/>
+    </row>
+    <row r="63" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -2912,21 +3736,23 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="34"/>
+      <c r="M63" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="N63" s="67"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="85"/>
+      <c r="Q63" s="88"/>
+      <c r="R63" s="89"/>
+      <c r="S63" s="63"/>
+      <c r="T63" s="63"/>
+      <c r="U63" s="63"/>
+      <c r="V63" s="6"/>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B64" s="51"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="53"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -2935,22 +3761,22 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="34"/>
-    </row>
-    <row r="65" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="54"/>
-      <c r="C65" s="55"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="33"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="63"/>
+      <c r="S64" s="63"/>
+      <c r="T64" s="63"/>
+      <c r="U64" s="63"/>
+      <c r="V64" s="6"/>
+    </row>
+    <row r="65" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="25"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="4"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -2958,24 +3784,26 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="34"/>
-    </row>
-    <row r="66" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="50"/>
-      <c r="E66" s="33"/>
+      <c r="M65" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="63"/>
+      <c r="T65" s="63"/>
+      <c r="U65" s="63"/>
+      <c r="V65" s="6"/>
+    </row>
+    <row r="66" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="4"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -2983,22 +3811,24 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="34"/>
+      <c r="M66" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="N66" s="67"/>
+      <c r="O66" s="63"/>
+      <c r="P66" s="63"/>
+      <c r="Q66" s="63"/>
+      <c r="R66" s="63"/>
+      <c r="S66" s="63"/>
+      <c r="T66" s="63"/>
+      <c r="U66" s="63"/>
+      <c r="V66" s="6"/>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B67" s="51"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="33"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="4"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -3006,22 +3836,22 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="34"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="63"/>
+      <c r="O67" s="63"/>
+      <c r="P67" s="63"/>
+      <c r="Q67" s="63"/>
+      <c r="R67" s="63"/>
+      <c r="S67" s="63"/>
+      <c r="T67" s="63"/>
+      <c r="U67" s="63"/>
+      <c r="V67" s="6"/>
     </row>
     <row r="68" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="54"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="33"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="4"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -3029,24 +3859,24 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="34"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="O68" s="92"/>
+      <c r="P68" s="92"/>
+      <c r="Q68" s="92"/>
+      <c r="R68" s="92"/>
+      <c r="S68" s="92"/>
+      <c r="T68" s="92"/>
+      <c r="U68" s="93"/>
+      <c r="V68" s="6"/>
     </row>
     <row r="69" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="33"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="4"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -3054,22 +3884,22 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
-      <c r="U69" s="1"/>
-      <c r="V69" s="34"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="94"/>
+      <c r="O69" s="95"/>
+      <c r="P69" s="95"/>
+      <c r="Q69" s="95"/>
+      <c r="R69" s="95"/>
+      <c r="S69" s="95"/>
+      <c r="T69" s="95"/>
+      <c r="U69" s="96"/>
+      <c r="V69" s="6"/>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B70" s="51"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="33"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="4"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -3077,55 +3907,80 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="34"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="63"/>
+      <c r="O70" s="63"/>
+      <c r="P70" s="63"/>
+      <c r="Q70" s="63"/>
+      <c r="R70" s="63"/>
+      <c r="S70" s="63"/>
+      <c r="T70" s="63"/>
+      <c r="U70" s="63"/>
+      <c r="V70" s="6"/>
     </row>
     <row r="71" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="54"/>
-      <c r="C71" s="55"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="8"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="65"/>
+      <c r="O71" s="65"/>
+      <c r="P71" s="65"/>
+      <c r="Q71" s="65"/>
+      <c r="R71" s="65"/>
+      <c r="S71" s="65"/>
+      <c r="T71" s="65"/>
+      <c r="U71" s="65"/>
+      <c r="V71" s="66"/>
     </row>
     <row r="72" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="54">
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="N68:U69"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="B14:D15"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H42"/>
+    <mergeCell ref="F43:H44"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="M59:O59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="P63:R63"/>
     <mergeCell ref="E28:L29"/>
     <mergeCell ref="M28:V29"/>
     <mergeCell ref="B60:D62"/>
     <mergeCell ref="B63:D65"/>
     <mergeCell ref="B66:D68"/>
+    <mergeCell ref="B39:D41"/>
+    <mergeCell ref="M30:V32"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="O40:S41"/>
     <mergeCell ref="B69:D71"/>
     <mergeCell ref="F31:H36"/>
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="F38:H38"/>
     <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H41"/>
-    <mergeCell ref="F42:H43"/>
     <mergeCell ref="B42:D44"/>
     <mergeCell ref="B45:D47"/>
     <mergeCell ref="B48:D50"/>
@@ -3135,19 +3990,14 @@
     <mergeCell ref="B28:D32"/>
     <mergeCell ref="B33:D35"/>
     <mergeCell ref="B36:D38"/>
-    <mergeCell ref="B39:D41"/>
+    <mergeCell ref="B2:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="H2:J7"/>
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J12"/>
-    <mergeCell ref="H13:J14"/>
-    <mergeCell ref="B2:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="B13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/QuanLyCuaHangVatLieuXayDung/template/layout.xlsx
+++ b/QuanLyCuaHangVatLieuXayDung/template/layout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phan_Tich_Va_Thiet_Ke_He_Thong_Thong_Tin\DoAnCuoiKy\QuanLyNhapXuatCuaHangVatLieuXayDung_dev_Bao\QuanLyCuaHangVatLieuXayDung\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E837C6B-5479-42EA-8D94-7909A456AEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3624D167-CEF3-419C-9172-4F8F5C425CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{30F8D3DC-B8FB-4EF1-8873-75A4B0B7C454}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Tên: Gạch 2 lổ TCVN</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Biên lai trả nợ</t>
-  </si>
-  <si>
-    <t>Chi phí phát sinh</t>
   </si>
   <si>
     <t>Nhân viên</t>
@@ -131,9 +128,6 @@
     <t xml:space="preserve">Tiền giảm: </t>
   </si>
   <si>
-    <t>Nợ củ</t>
-  </si>
-  <si>
     <t>Tổng hóa đơn:</t>
   </si>
   <si>
@@ -148,12 +142,24 @@
   <si>
     <t>Hd00000001</t>
   </si>
+  <si>
+    <t>Kho</t>
+  </si>
+  <si>
+    <t>Thanh toán:</t>
+  </si>
+  <si>
+    <t>Nợ cũ:</t>
+  </si>
+  <si>
+    <t>Tổng nợ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +209,28 @@
       <i/>
       <u/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -264,7 +292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -466,55 +494,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -522,6 +506,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -642,45 +634,26 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -695,31 +668,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -729,6 +697,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -736,14 +707,29 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2706,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A237127A-16A2-4193-9CBC-875260166E60}">
   <dimension ref="B1:V72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U34" sqref="U34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y51" sqref="Y51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2719,193 +2705,193 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="2:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="H8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
+      <c r="B8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="H8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="2:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="H9" s="16" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="H9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="H10" s="16" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="H10" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="H11" s="16" t="s">
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="H11" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="105" t="s">
+      <c r="B12" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="98"/>
-      <c r="H12" s="105" t="s">
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="H12" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="97"/>
-      <c r="J12" s="98"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="92"/>
     </row>
     <row r="13" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="99"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="98"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="92"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="92"/>
     </row>
     <row r="14" spans="2:10" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="106" t="s">
+      <c r="B14" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="H14" s="106" t="s">
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="H14" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="100"/>
-      <c r="J14" s="101"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="96"/>
     </row>
     <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="102"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="104"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="99"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="99"/>
     </row>
     <row r="16" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="62"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="89"/>
     </row>
     <row r="29" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="39"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="60"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="55"/>
     </row>
     <row r="30" spans="2:22" ht="6.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2914,413 +2900,413 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="68" t="s">
-        <v>16</v>
-      </c>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="70"/>
+      <c r="M30" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="67"/>
     </row>
     <row r="31" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
-      <c r="Q31" s="72"/>
-      <c r="R31" s="72"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="73"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="69"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="69"/>
+      <c r="V31" s="70"/>
     </row>
     <row r="32" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="73"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="69"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
+      <c r="U32" s="69"/>
+      <c r="V32" s="70"/>
     </row>
     <row r="33" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="50"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="20"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="63"/>
-      <c r="S33" s="63"/>
-      <c r="T33" s="63"/>
-      <c r="U33" s="63"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
       <c r="V33" s="6"/>
     </row>
     <row r="34" spans="2:22" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="20"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="N34" s="67"/>
-      <c r="O34" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="P34" s="89"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="S34" s="67"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="63"/>
+      <c r="M34" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34" s="72"/>
+      <c r="O34" s="100" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="101" t="s">
+        <v>16</v>
+      </c>
+      <c r="S34" s="72"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="7"/>
       <c r="V34" s="6"/>
     </row>
     <row r="35" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="54"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="56"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="64"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="20"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="63"/>
-      <c r="S35" s="63"/>
-      <c r="T35" s="63"/>
-      <c r="U35" s="63"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
       <c r="V35" s="6"/>
     </row>
     <row r="36" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" s="77"/>
-      <c r="O36" s="80"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="67"/>
-      <c r="R36" s="67"/>
-      <c r="S36" s="67"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="63"/>
+      <c r="M36" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="74"/>
+      <c r="O36" s="77"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
       <c r="V36" s="6"/>
     </row>
     <row r="37" spans="2:22" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="32"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
+      <c r="F37" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="63"/>
-      <c r="S37" s="63"/>
-      <c r="T37" s="63"/>
-      <c r="U37" s="63"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
       <c r="V37" s="6"/>
     </row>
     <row r="38" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="16" t="s">
+      <c r="F38" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="18"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="N38" s="79"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="81"/>
-      <c r="Q38" s="81"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="81"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="63"/>
+      <c r="M38" s="75" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="76"/>
+      <c r="O38" s="77"/>
+      <c r="P38" s="78"/>
+      <c r="Q38" s="78"/>
+      <c r="R38" s="78"/>
+      <c r="S38" s="78"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
       <c r="V38" s="6"/>
     </row>
     <row r="39" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="63"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
       <c r="V39" s="6"/>
     </row>
     <row r="40" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="16" t="s">
+      <c r="F40" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="18"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N40" s="63"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="81"/>
-      <c r="Q40" s="81"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="81"/>
-      <c r="T40" s="63"/>
-      <c r="U40" s="63"/>
+        <v>19</v>
+      </c>
+      <c r="N40" s="7"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
       <c r="V40" s="6"/>
     </row>
     <row r="41" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="105" t="s">
+      <c r="F41" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="97"/>
-      <c r="H41" s="98"/>
+      <c r="G41" s="91"/>
+      <c r="H41" s="92"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="81"/>
-      <c r="Q41" s="81"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="81"/>
-      <c r="T41" s="63"/>
-      <c r="U41" s="63"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
       <c r="V41" s="6"/>
     </row>
     <row r="42" spans="2:22" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
+      <c r="B42" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="98"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="92"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="63"/>
-      <c r="S42" s="63"/>
-      <c r="T42" s="63"/>
-      <c r="U42" s="63"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
       <c r="V42" s="6"/>
     </row>
     <row r="43" spans="2:22" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="106" t="s">
+      <c r="F43" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="100"/>
-      <c r="H43" s="101"/>
+      <c r="G43" s="95"/>
+      <c r="H43" s="96"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="84" t="s">
+      <c r="M43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="N43" s="84" t="s">
+      <c r="O43" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O43" s="84" t="s">
+      <c r="P43" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="84" t="s">
+      <c r="Q43" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q43" s="84" t="s">
+      <c r="R43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="R43" s="84" t="s">
+      <c r="S43" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="S43" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="T43" s="63"/>
-      <c r="U43" s="63"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
       <c r="V43" s="6"/>
     </row>
     <row r="44" spans="2:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="33"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="35"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="104"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="99"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="83"/>
-      <c r="S44" s="83"/>
-      <c r="T44" s="63"/>
-      <c r="U44" s="63"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
       <c r="V44" s="6"/>
     </row>
     <row r="45" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
+      <c r="B45" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
       <c r="E45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="83"/>
-      <c r="P45" s="83"/>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="83"/>
-      <c r="S45" s="83"/>
-      <c r="T45" s="63"/>
-      <c r="U45" s="63"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
       <c r="V45" s="6"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="32"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -3329,21 +3315,21 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83"/>
-      <c r="Q46" s="83"/>
-      <c r="R46" s="83"/>
-      <c r="S46" s="83"/>
-      <c r="T46" s="63"/>
-      <c r="U46" s="63"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
       <c r="V46" s="6"/>
     </row>
     <row r="47" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="35"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -3352,23 +3338,23 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
-      <c r="Q47" s="83"/>
-      <c r="R47" s="83"/>
-      <c r="S47" s="83"/>
-      <c r="T47" s="63"/>
-      <c r="U47" s="63"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
       <c r="V47" s="6"/>
     </row>
     <row r="48" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21"/>
+      <c r="B48" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -3377,21 +3363,21 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
-      <c r="P48" s="83"/>
-      <c r="Q48" s="83"/>
-      <c r="R48" s="83"/>
-      <c r="S48" s="83"/>
-      <c r="T48" s="63"/>
-      <c r="U48" s="63"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
       <c r="V48" s="6"/>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -3400,21 +3386,21 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="83"/>
-      <c r="R49" s="83"/>
-      <c r="S49" s="83"/>
-      <c r="T49" s="63"/>
-      <c r="U49" s="63"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
       <c r="V49" s="6"/>
     </row>
     <row r="50" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="35"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -3423,23 +3409,23 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="82"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="83"/>
-      <c r="Q50" s="83"/>
-      <c r="R50" s="83"/>
-      <c r="S50" s="83"/>
-      <c r="T50" s="63"/>
-      <c r="U50" s="63"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
       <c r="V50" s="6"/>
     </row>
     <row r="51" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
+      <c r="B51" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="36"/>
+      <c r="D51" s="37"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -3448,21 +3434,21 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="82"/>
-      <c r="N51" s="83"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="83"/>
-      <c r="Q51" s="83"/>
-      <c r="R51" s="83"/>
-      <c r="S51" s="83"/>
-      <c r="T51" s="63"/>
-      <c r="U51" s="63"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
       <c r="V51" s="6"/>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B52" s="30"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="32"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3471,21 +3457,21 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="82"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83"/>
-      <c r="Q52" s="83"/>
-      <c r="R52" s="83"/>
-      <c r="S52" s="83"/>
-      <c r="T52" s="63"/>
-      <c r="U52" s="63"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
       <c r="V52" s="6"/>
     </row>
     <row r="53" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="43"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -3494,23 +3480,23 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="82"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83"/>
-      <c r="Q53" s="83"/>
-      <c r="R53" s="83"/>
-      <c r="S53" s="83"/>
-      <c r="T53" s="63"/>
-      <c r="U53" s="63"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
       <c r="V53" s="6"/>
     </row>
     <row r="54" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="21"/>
+      <c r="B54" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -3519,21 +3505,21 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="82"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="83"/>
-      <c r="Q54" s="83"/>
-      <c r="R54" s="83"/>
-      <c r="S54" s="83"/>
-      <c r="T54" s="63"/>
-      <c r="U54" s="63"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
       <c r="V54" s="6"/>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="24"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3542,21 +3528,21 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="82"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
-      <c r="S55" s="83"/>
-      <c r="T55" s="63"/>
-      <c r="U55" s="63"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
       <c r="V55" s="6"/>
     </row>
     <row r="56" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="35"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -3565,23 +3551,23 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="82"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="83"/>
-      <c r="Q56" s="83"/>
-      <c r="R56" s="83"/>
-      <c r="S56" s="83"/>
-      <c r="T56" s="63"/>
-      <c r="U56" s="63"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
       <c r="V56" s="6"/>
     </row>
     <row r="57" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="20"/>
-      <c r="D57" s="21"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -3590,21 +3576,21 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="82"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="83"/>
-      <c r="Q57" s="83"/>
-      <c r="R57" s="83"/>
-      <c r="S57" s="83"/>
-      <c r="T57" s="63"/>
-      <c r="U57" s="63"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
       <c r="V57" s="6"/>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="24"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="32"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -3614,20 +3600,20 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="63"/>
-      <c r="P58" s="63"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="63"/>
-      <c r="S58" s="63"/>
-      <c r="T58" s="63"/>
-      <c r="U58" s="63"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
       <c r="V58" s="6"/>
     </row>
     <row r="59" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="35"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -3636,25 +3622,25 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="N59" s="67"/>
-      <c r="O59" s="67"/>
-      <c r="P59" s="85"/>
-      <c r="Q59" s="86"/>
-      <c r="R59" s="87"/>
-      <c r="S59" s="63"/>
-      <c r="T59" s="63"/>
-      <c r="U59" s="63"/>
+      <c r="M59" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="72"/>
+      <c r="O59" s="72"/>
+      <c r="P59" s="79"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="81"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
       <c r="V59" s="6"/>
     </row>
     <row r="60" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="21"/>
+      <c r="B60" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3664,20 +3650,20 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="63"/>
-      <c r="O60" s="63"/>
-      <c r="P60" s="63"/>
-      <c r="Q60" s="63"/>
-      <c r="R60" s="63"/>
-      <c r="S60" s="63"/>
-      <c r="T60" s="63"/>
-      <c r="U60" s="63"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
       <c r="V60" s="6"/>
     </row>
     <row r="61" spans="2:22" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="24"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="32"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -3686,23 +3672,23 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
-      <c r="P61" s="85"/>
-      <c r="Q61" s="86"/>
-      <c r="R61" s="87"/>
-      <c r="S61" s="63"/>
-      <c r="T61" s="63"/>
-      <c r="U61" s="63"/>
+      <c r="M61" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="N61" s="72"/>
+      <c r="O61" s="72"/>
+      <c r="P61" s="79"/>
+      <c r="Q61" s="80"/>
+      <c r="R61" s="81"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
       <c r="V61" s="6"/>
     </row>
     <row r="62" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="25"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -3712,22 +3698,22 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="63"/>
-      <c r="O62" s="63"/>
-      <c r="P62" s="63"/>
-      <c r="Q62" s="63"/>
-      <c r="R62" s="63"/>
-      <c r="S62" s="63"/>
-      <c r="T62" s="63"/>
-      <c r="U62" s="63"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
       <c r="V62" s="6"/>
     </row>
     <row r="63" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="21"/>
+      <c r="B63" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="28"/>
+      <c r="D63" s="29"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -3736,23 +3722,23 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="N63" s="67"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="85"/>
-      <c r="Q63" s="88"/>
-      <c r="R63" s="89"/>
-      <c r="S63" s="63"/>
-      <c r="T63" s="63"/>
-      <c r="U63" s="63"/>
+      <c r="M63" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="N63" s="72"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="79"/>
+      <c r="Q63" s="82"/>
+      <c r="R63" s="83"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
       <c r="V63" s="6"/>
     </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="24"/>
+    <row r="64" spans="2:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B64" s="30"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="32"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -3761,21 +3747,23 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="63"/>
-      <c r="S64" s="63"/>
-      <c r="T64" s="63"/>
-      <c r="U64" s="63"/>
+      <c r="M64" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="N64" s="72"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
       <c r="V64" s="6"/>
     </row>
     <row r="65" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="25"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="27"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="35"/>
       <c r="E65" s="4"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -3784,25 +3772,25 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="N65" s="63"/>
-      <c r="O65" s="63"/>
-      <c r="P65" s="63"/>
-      <c r="Q65" s="63"/>
-      <c r="R65" s="63"/>
-      <c r="S65" s="63"/>
-      <c r="T65" s="63"/>
-      <c r="U65" s="63"/>
+      <c r="M65" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="N65" s="72"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
       <c r="V65" s="6"/>
     </row>
     <row r="66" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="21"/>
+      <c r="B66" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="28"/>
+      <c r="D66" s="29"/>
       <c r="E66" s="4"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -3811,23 +3799,23 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="N66" s="67"/>
-      <c r="O66" s="63"/>
-      <c r="P66" s="63"/>
-      <c r="Q66" s="63"/>
-      <c r="R66" s="63"/>
-      <c r="S66" s="63"/>
-      <c r="T66" s="63"/>
-      <c r="U66" s="63"/>
+      <c r="M66" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="N66" s="103"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
       <c r="V66" s="6"/>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="24"/>
+    <row r="67" spans="2:22" ht="17" x14ac:dyDescent="0.4">
+      <c r="B67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="32"/>
       <c r="E67" s="4"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -3836,21 +3824,23 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="63"/>
-      <c r="Q67" s="63"/>
-      <c r="R67" s="63"/>
-      <c r="S67" s="63"/>
-      <c r="T67" s="63"/>
-      <c r="U67" s="63"/>
+      <c r="M67" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
       <c r="V67" s="6"/>
     </row>
-    <row r="68" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="25"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="27"/>
+    <row r="68" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
       <c r="E68" s="4"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -3860,22 +3850,20 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="O68" s="92"/>
-      <c r="P68" s="92"/>
-      <c r="Q68" s="92"/>
-      <c r="R68" s="92"/>
-      <c r="S68" s="92"/>
-      <c r="T68" s="92"/>
-      <c r="U68" s="93"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
       <c r="V68" s="6"/>
     </row>
-    <row r="69" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="19"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="21"/>
+    <row r="69" spans="2:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="29"/>
       <c r="E69" s="4"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -3885,20 +3873,22 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="5"/>
-      <c r="N69" s="94"/>
-      <c r="O69" s="95"/>
-      <c r="P69" s="95"/>
-      <c r="Q69" s="95"/>
-      <c r="R69" s="95"/>
-      <c r="S69" s="95"/>
-      <c r="T69" s="95"/>
-      <c r="U69" s="96"/>
+      <c r="N69" s="105" t="s">
+        <v>31</v>
+      </c>
+      <c r="O69" s="106"/>
+      <c r="P69" s="106"/>
+      <c r="Q69" s="106"/>
+      <c r="R69" s="106"/>
+      <c r="S69" s="106"/>
+      <c r="T69" s="106"/>
+      <c r="U69" s="107"/>
       <c r="V69" s="6"/>
     </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="24"/>
+    <row r="70" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="30"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
       <c r="E70" s="4"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -3908,20 +3898,20 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="5"/>
-      <c r="N70" s="63"/>
-      <c r="O70" s="63"/>
-      <c r="P70" s="63"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="63"/>
-      <c r="S70" s="63"/>
-      <c r="T70" s="63"/>
-      <c r="U70" s="63"/>
+      <c r="N70" s="108"/>
+      <c r="O70" s="109"/>
+      <c r="P70" s="109"/>
+      <c r="Q70" s="109"/>
+      <c r="R70" s="109"/>
+      <c r="S70" s="109"/>
+      <c r="T70" s="109"/>
+      <c r="U70" s="110"/>
       <c r="V70" s="6"/>
     </row>
-    <row r="71" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="25"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="27"/>
+    <row r="71" spans="2:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="33"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="35"/>
       <c r="E71" s="2"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -3930,22 +3920,24 @@
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="64"/>
-      <c r="N71" s="65"/>
-      <c r="O71" s="65"/>
-      <c r="P71" s="65"/>
-      <c r="Q71" s="65"/>
-      <c r="R71" s="65"/>
-      <c r="S71" s="65"/>
-      <c r="T71" s="65"/>
-      <c r="U71" s="65"/>
-      <c r="V71" s="66"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="10"/>
     </row>
     <row r="72" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="56">
+    <mergeCell ref="N69:U70"/>
+    <mergeCell ref="E28:L29"/>
+    <mergeCell ref="M28:V29"/>
     <mergeCell ref="M66:N66"/>
-    <mergeCell ref="N68:U69"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D13"/>
     <mergeCell ref="B14:D15"/>
@@ -3958,15 +3950,6 @@
     <mergeCell ref="O34:P34"/>
     <mergeCell ref="R34:S34"/>
     <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="M61:O61"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="E28:L29"/>
-    <mergeCell ref="M28:V29"/>
-    <mergeCell ref="B60:D62"/>
-    <mergeCell ref="B63:D65"/>
     <mergeCell ref="B66:D68"/>
     <mergeCell ref="B39:D41"/>
     <mergeCell ref="M30:V32"/>
@@ -3976,6 +3959,13 @@
     <mergeCell ref="O38:S38"/>
     <mergeCell ref="O36:S36"/>
     <mergeCell ref="O40:S41"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="M61:O61"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M65:N65"/>
     <mergeCell ref="B69:D71"/>
     <mergeCell ref="F31:H36"/>
     <mergeCell ref="F37:H37"/>
@@ -3990,6 +3980,8 @@
     <mergeCell ref="B28:D32"/>
     <mergeCell ref="B33:D35"/>
     <mergeCell ref="B36:D38"/>
+    <mergeCell ref="B60:D62"/>
+    <mergeCell ref="B63:D65"/>
     <mergeCell ref="B2:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>

--- a/QuanLyCuaHangVatLieuXayDung/template/layout.xlsx
+++ b/QuanLyCuaHangVatLieuXayDung/template/layout.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phan_Tich_Va_Thiet_Ke_He_Thong_Thong_Tin\DoAnCuoiKy\QuanLyNhapXuatCuaHangVatLieuXayDung_dev_Bao\QuanLyCuaHangVatLieuXayDung\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3624D167-CEF3-419C-9172-4F8F5C425CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0C0A6F-CA10-498A-8EAA-9E92D830D013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{30F8D3DC-B8FB-4EF1-8873-75A4B0B7C454}"/>
   </bookViews>
   <sheets>
-    <sheet name="FormTrangChu" sheetId="1" r:id="rId1"/>
+    <sheet name="Form_GiaoDien" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>Tên: Gạch 2 lổ TCVN</t>
   </si>
@@ -128,9 +128,6 @@
     <t xml:space="preserve">Tiền giảm: </t>
   </si>
   <si>
-    <t>Tổng hóa đơn:</t>
-  </si>
-  <si>
     <t>Xuất hóa đơn</t>
   </si>
   <si>
@@ -143,23 +140,140 @@
     <t>Hd00000001</t>
   </si>
   <si>
-    <t>Kho</t>
-  </si>
-  <si>
-    <t>Thanh toán:</t>
-  </si>
-  <si>
-    <t>Nợ cũ:</t>
-  </si>
-  <si>
-    <t>Tổng nợ</t>
+    <t>Gạch 2 lổ TCVN</t>
+  </si>
+  <si>
+    <t>viên</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>0398929473</t>
+  </si>
+  <si>
+    <t>Cầu 16, phú thuận, Phú Hội, An Phú, An Giang</t>
+  </si>
+  <si>
+    <t>Trả một lần</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>130,000</t>
+  </si>
+  <si>
+    <t>Tổng hóa đơn: 130,000</t>
+  </si>
+  <si>
+    <t>Thanh toán: 130,000</t>
+  </si>
+  <si>
+    <t>Nợ cũ: 0</t>
+  </si>
+  <si>
+    <t>Tổng nợ: 0</t>
+  </si>
+  <si>
+    <t>Gía nhập: 990 đ/viên</t>
+  </si>
+  <si>
+    <t>Chọn số lượng vật liệu</t>
+  </si>
+  <si>
+    <t>Gía nhập</t>
+  </si>
+  <si>
+    <t>Gía xuất</t>
+  </si>
+  <si>
+    <t>Nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Chọn</t>
+  </si>
+  <si>
+    <t>VatLieu001</t>
+  </si>
+  <si>
+    <t>Công ty Phú Điền</t>
+  </si>
+  <si>
+    <t>Tạo vật liệu mới</t>
+  </si>
+  <si>
+    <t>Nhà cung cấp:</t>
+  </si>
+  <si>
+    <t>Đơn vị:</t>
+  </si>
+  <si>
+    <t>Gía xuất:</t>
+  </si>
+  <si>
+    <t>Gía nhập:</t>
+  </si>
+  <si>
+    <t>Số lượng:</t>
+  </si>
+  <si>
+    <t>Tạo</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>doitac0001</t>
+  </si>
+  <si>
+    <t>Nguyễn văn A</t>
+  </si>
+  <si>
+    <t>Cầu 16, Phú Hội</t>
+  </si>
+  <si>
+    <t>Tên khách hàng</t>
+  </si>
+  <si>
+    <t>Tạo khách hàng mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã khách hàng </t>
+  </si>
+  <si>
+    <t>Mã vật liệu:</t>
+  </si>
+  <si>
+    <t>Tên vật liệu:</t>
+  </si>
+  <si>
+    <t>Tên đói tác</t>
+  </si>
+  <si>
+    <t>Số diện thoại:</t>
+  </si>
+  <si>
+    <t>Email:</t>
+  </si>
+  <si>
+    <t>Ngân hàng:</t>
+  </si>
+  <si>
+    <t>Số tài khoản:</t>
+  </si>
+  <si>
+    <t>Tải ảnh Mã QR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +349,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +418,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -494,11 +645,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -514,6 +790,141 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -532,55 +943,55 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -652,8 +1063,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -666,13 +1075,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -687,6 +1120,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,25 +1144,94 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1483,7 +1987,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>163285</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
+      <xdr:rowOff>42635</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1583,16 +2087,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>21896</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>91169</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>65176</xdr:rowOff>
+      <xdr:rowOff>42085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57727</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>119529</xdr:rowOff>
+      <xdr:rowOff>115455</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1607,8 +2111,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7529837" y="5429058"/>
-          <a:ext cx="3108281" cy="248589"/>
+          <a:off x="6983805" y="5364540"/>
+          <a:ext cx="1802286" cy="269642"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1673,14 +2177,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>249879</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>203696</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>80116</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>481982</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>435799</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>106391</xdr:rowOff>
     </xdr:to>
@@ -1697,8 +2201,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10820761" y="5443998"/>
-          <a:ext cx="844692" cy="220511"/>
+          <a:off x="8932060" y="5402571"/>
+          <a:ext cx="844012" cy="222547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1750,16 +2254,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>48172</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25081</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>80117</xdr:rowOff>
+      <xdr:rowOff>91663</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>530412</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>45503</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>104589</xdr:rowOff>
+      <xdr:rowOff>116135</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1774,8 +2278,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11844231" y="5443999"/>
-          <a:ext cx="1094828" cy="218708"/>
+          <a:off x="9977263" y="5414118"/>
+          <a:ext cx="1244240" cy="220744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1831,8 +2335,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>44174</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>410882</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
@@ -1855,8 +2359,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11744739" y="6758608"/>
-          <a:ext cx="938695" cy="463826"/>
+          <a:off x="11594353" y="6814800"/>
+          <a:ext cx="1339183" cy="464476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1895,21 +2399,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>đối</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t> tác</a:t>
+            <a:t> khách hàng</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1300">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -1922,8 +2412,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>49696</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>413920</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>204303</xdr:rowOff>
     </xdr:from>
@@ -1946,8 +2436,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11750261" y="7371520"/>
-          <a:ext cx="949739" cy="519045"/>
+          <a:off x="11597391" y="7428362"/>
+          <a:ext cx="1352711" cy="517095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1975,20 +2465,20 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1000">
+            <a:rPr lang="en-US" sz="1300">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Tạo</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" sz="1300" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> đối tác mới</a:t>
+            <a:t> khách hàng mới</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
+          <a:endParaRPr lang="en-US" sz="1300">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -1999,16 +2489,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>53009</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>180008</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>215282</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>21259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>384312</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>47487</xdr:rowOff>
+      <xdr:colOff>180204</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>70166</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2023,8 +2513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11764618" y="8169965"/>
-          <a:ext cx="1093303" cy="463826"/>
+          <a:off x="11398753" y="11339200"/>
+          <a:ext cx="1339510" cy="459790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2063,14 +2553,7 @@
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:rPr>
-            <a:t>vật liệu</a:t>
+            <a:t> vật liệu</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1300">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -2083,16 +2566,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>58531</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>3312</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>218320</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>3313</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>400878</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>146879</xdr:rowOff>
+      <xdr:colOff>196770</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>109082</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2107,8 +2590,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11770140" y="8782877"/>
-          <a:ext cx="1104347" cy="519045"/>
+          <a:off x="11401791" y="11941313"/>
+          <a:ext cx="1353038" cy="516651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2136,20 +2619,20 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1000">
+            <a:rPr lang="en-US" sz="1300">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t>Tạo</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1000" baseline="0">
+            <a:rPr lang="en-US" sz="1300" baseline="0">
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
             <a:t> vật liệu mới</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1000">
+          <a:endParaRPr lang="en-US" sz="1300">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
           </a:endParaRPr>
@@ -2169,7 +2652,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>27608</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>66262</xdr:rowOff>
+      <xdr:rowOff>58702</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2370,6 +2853,1700 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22679</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>15119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>410883</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E5713D-65F6-BDE4-EB07-B4592CA13D20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3242503" y="14567825"/>
+          <a:ext cx="4676321" cy="448057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Khi</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> thực hiện sự kiện click ở button "Giao Dịch" và vật liệu trong DataGridView thì form_ChonSoLuongVatLieu sẽ hiện ra</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>309940</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>370416</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6774FDC1-B527-4F3D-D972-ABB2B1D35803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4142619" y="7952619"/>
+          <a:ext cx="60476" cy="6380238"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166310</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>151191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>151190</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26836DD0-5AE8-99C7-0B3A-59C5175CA17B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4611310" y="8451548"/>
+          <a:ext cx="2494642" cy="5851071"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>97118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>164353</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F24F2FAB-F0F5-5598-B49B-32C7D99D112D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4601882" y="15023353"/>
+          <a:ext cx="7471" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>410882</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7CDC33-D4CF-2FDF-CA46-BEFA5900623F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4243294" y="16539883"/>
+          <a:ext cx="2293471" cy="246529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>455706</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Graphic 39" descr="Badge Follow with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEFDD5F6-602B-D12D-B973-75A3DB9503F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6738471" y="16465177"/>
+          <a:ext cx="470647" cy="470647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>388471</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>52293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>239060</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Graphic 41" descr="Badge Unfollow with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EBD874B-5B98-F48B-BEF6-05D5E1B813E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3608295" y="16472646"/>
+          <a:ext cx="463177" cy="463177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>74708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>283882</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>82178</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD02B4AB-9CD9-737D-6C41-57C0F804D147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5939117" y="17428884"/>
+          <a:ext cx="1240118" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Ok</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>493058</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>52296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>59766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B1BFE9-CAA8-B6A1-E230-8F23CC023C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3712882" y="17406472"/>
+          <a:ext cx="1240118" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Loại</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> bỏ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180204</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>34507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>590176</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12633E9A-0066-E4D0-C189-1837B58A5151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12738263" y="11569095"/>
+          <a:ext cx="2860325" cy="2846"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>46182</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1674091" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="TextBox 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ECB8A6E-0B20-2E5C-16E5-11632FB67F96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13208000" y="11245272"/>
+          <a:ext cx="1674091" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sự</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> kiện click</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>198263</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>68594</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127681</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{824C5634-749D-FC99-21CC-3376537E119A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11329813" y="5378450"/>
+          <a:ext cx="1248281" cy="222931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Ẩn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> hóa đơn</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>14942</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>597647</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>186765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BE7688-77F3-49B3-E26D-DCE7413229CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21668442" y="11840882"/>
+          <a:ext cx="1192305" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Chọn</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>196770</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>69805</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C45900-E213-0668-086C-03C0F2A0FCDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12679056" y="12025948"/>
+          <a:ext cx="2751444" cy="2542766"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>49444</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>3529</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="328295" cy="1724347"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="TextBox 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA9B691E-6BB7-6A22-4B37-EA98DD018942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2703576">
+          <a:off x="13134653" y="13050437"/>
+          <a:ext cx="1724347" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sự</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> kiện click</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>68357</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>393701</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Graphic 59" descr="Badge Follow with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543397B1-0C5C-6B40-CDE6-855429EDF9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19893057" y="17443450"/>
+          <a:ext cx="325344" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>166221</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>147543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Graphic 60" descr="Badge Unfollow with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581411D-99C9-90AC-C58E-F559BEE52704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16942921" y="17463993"/>
+          <a:ext cx="284629" cy="271557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Graphic 64" descr="Caret Left with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9B5F0D2-F313-81F5-7323-E93277B36A7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16827500" y="18440400"/>
+          <a:ext cx="419100" cy="565150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Graphic 66" descr="Caret Right with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87556EF9-5632-BF1B-CFA5-1D497B47569C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19843750" y="18440400"/>
+          <a:ext cx="400050" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Rectangle 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D376215-B32E-A6C7-3F17-7573A2CCDA84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18776950" y="19697700"/>
+          <a:ext cx="1041400" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Thêm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> ảnh</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rectangle 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F00B3A-ED79-E965-8C1C-90FEC4F1CE0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17405350" y="19697700"/>
+          <a:ext cx="1041400" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Xóa</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> ảnh</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1300">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Graphic 70" descr="Caret Down outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A967DC-398F-960D-099D-3A07C87DAEDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20167600" y="17094200"/>
+          <a:ext cx="260350" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>584947</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B7F33B-190C-842F-282E-AE927BAED775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20453350" y="4176432"/>
+          <a:ext cx="1175497" cy="347383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Chọn</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>375477</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>32716</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EC59F52-74D8-A562-AB9C-43889CA62F96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12884977" y="5060950"/>
+          <a:ext cx="2685223" cy="1905966"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>116032</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180108</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1674091" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A142C9-4338-25AF-45A2-9BA4ACF5D14E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19357026">
+          <a:off x="13235132" y="5463308"/>
+          <a:ext cx="1674091" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sự</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> kiện click</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Graphic 37" descr="Caret Down outline">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAD819D-854F-725B-2B1E-B6C1913D1849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26276300" y="6654800"/>
+          <a:ext cx="260350" cy="260350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>392043</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32ED0594-2D67-7083-3FE2-2158F770C5A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12901543" y="7756386"/>
+          <a:ext cx="9348857" cy="47764"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>192232</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>110258</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1674091" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="TextBox 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F33AA81-B193-4E6F-DBAD-51AC2FEE3F02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16359332" y="7406408"/>
+          <a:ext cx="1674091" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sự</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> kiện click</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2690,10 +4867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A237127A-16A2-4193-9CBC-875260166E60}">
-  <dimension ref="B1:V72"/>
+  <dimension ref="B1:AS110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y51" sqref="Y51"/>
+    <sheetView tabSelected="1" topLeftCell="M54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD44" sqref="AD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2701,197 +4878,401 @@
     <col min="5" max="5" width="2.26953125" customWidth="1"/>
     <col min="20" max="20" width="8.81640625" customWidth="1"/>
     <col min="21" max="21" width="10.90625" customWidth="1"/>
+    <col min="31" max="31" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="88"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="91"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="91"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="94"/>
     </row>
     <row r="8" spans="2:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="H8" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
+      <c r="B8" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="H8" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
     </row>
     <row r="9" spans="2:10" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="H9" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
     </row>
     <row r="10" spans="2:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="H10" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97"/>
+      <c r="H10" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="96"/>
+      <c r="J10" s="97"/>
     </row>
     <row r="11" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="H11" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="H12" s="90" t="s">
+      <c r="C12" s="170"/>
+      <c r="D12" s="171"/>
+      <c r="H12" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="91"/>
-      <c r="J12" s="92"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="171"/>
     </row>
     <row r="13" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="93"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="92"/>
+      <c r="B13" s="172"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="171"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="171"/>
     </row>
     <row r="14" spans="2:10" ht="13" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="96"/>
-      <c r="H14" s="94" t="s">
+      <c r="C14" s="174"/>
+      <c r="D14" s="175"/>
+      <c r="H14" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="95"/>
-      <c r="J14" s="96"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="175"/>
     </row>
     <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="99"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="178"/>
     </row>
     <row r="16" spans="2:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="89"/>
-    </row>
-    <row r="29" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="54"/>
-      <c r="R29" s="54"/>
-      <c r="S29" s="54"/>
-      <c r="T29" s="54"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="55"/>
-    </row>
-    <row r="30" spans="2:22" ht="6.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="AA20" s="187" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB20" s="195"/>
+      <c r="AC20" s="188" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD20" s="188"/>
+      <c r="AE20" s="191" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF20" s="192"/>
+      <c r="AG20" s="191" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH20" s="197"/>
+      <c r="AI20" s="191" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ20" s="192"/>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="AA21" s="189"/>
+      <c r="AB21" s="196"/>
+      <c r="AC21" s="190"/>
+      <c r="AD21" s="190"/>
+      <c r="AE21" s="193"/>
+      <c r="AF21" s="194"/>
+      <c r="AG21" s="193"/>
+      <c r="AH21" s="198"/>
+      <c r="AI21" s="193"/>
+      <c r="AJ21" s="194"/>
+      <c r="AL21" s="207" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM21" s="202"/>
+      <c r="AN21" s="202"/>
+      <c r="AO21" s="202"/>
+      <c r="AP21" s="202"/>
+      <c r="AQ21" s="202"/>
+      <c r="AR21" s="202"/>
+      <c r="AS21" s="203"/>
+    </row>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="AA22" s="191" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="191" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="191">
+        <v>398746251</v>
+      </c>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="191" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="191"/>
+      <c r="AJ22" s="47"/>
+      <c r="AL22" s="204"/>
+      <c r="AM22" s="205"/>
+      <c r="AN22" s="205"/>
+      <c r="AO22" s="205"/>
+      <c r="AP22" s="205"/>
+      <c r="AQ22" s="205"/>
+      <c r="AR22" s="205"/>
+      <c r="AS22" s="206"/>
+    </row>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="48"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="48"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="48"/>
+      <c r="AJ23" s="49"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="29"/>
+      <c r="AN23" s="29"/>
+      <c r="AO23" s="29"/>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="29"/>
+      <c r="AR23" s="29"/>
+      <c r="AS23" s="30"/>
+    </row>
+    <row r="24" spans="2:45" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AA24" s="181"/>
+      <c r="AB24" s="182"/>
+      <c r="AC24" s="182"/>
+      <c r="AD24" s="182"/>
+      <c r="AE24" s="182"/>
+      <c r="AF24" s="182"/>
+      <c r="AG24" s="182"/>
+      <c r="AH24" s="182"/>
+      <c r="AI24" s="182"/>
+      <c r="AJ24" s="183"/>
+      <c r="AL24" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="41"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="43"/>
+      <c r="AS24" s="30"/>
+    </row>
+    <row r="25" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="AA25" s="181"/>
+      <c r="AB25" s="182"/>
+      <c r="AC25" s="182"/>
+      <c r="AD25" s="182"/>
+      <c r="AE25" s="182"/>
+      <c r="AF25" s="182"/>
+      <c r="AG25" s="182"/>
+      <c r="AH25" s="182"/>
+      <c r="AI25" s="182"/>
+      <c r="AJ25" s="183"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="29"/>
+      <c r="AP25" s="29"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="29"/>
+      <c r="AS25" s="30"/>
+    </row>
+    <row r="26" spans="2:45" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AA26" s="181"/>
+      <c r="AB26" s="182"/>
+      <c r="AC26" s="182"/>
+      <c r="AD26" s="182"/>
+      <c r="AE26" s="182"/>
+      <c r="AF26" s="182"/>
+      <c r="AG26" s="182"/>
+      <c r="AH26" s="182"/>
+      <c r="AI26" s="182"/>
+      <c r="AJ26" s="183"/>
+      <c r="AL26" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="41"/>
+      <c r="AO26" s="42"/>
+      <c r="AP26" s="42"/>
+      <c r="AQ26" s="42"/>
+      <c r="AR26" s="43"/>
+      <c r="AS26" s="30"/>
+    </row>
+    <row r="27" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AA27" s="181"/>
+      <c r="AB27" s="182"/>
+      <c r="AC27" s="182"/>
+      <c r="AD27" s="182"/>
+      <c r="AE27" s="182"/>
+      <c r="AF27" s="182"/>
+      <c r="AG27" s="182"/>
+      <c r="AH27" s="182"/>
+      <c r="AI27" s="182"/>
+      <c r="AJ27" s="183"/>
+      <c r="AL27" s="28"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="29"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="29"/>
+      <c r="AR27" s="29"/>
+      <c r="AS27" s="30"/>
+    </row>
+    <row r="28" spans="2:45" ht="17" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="162"/>
+      <c r="M28" s="165"/>
+      <c r="N28" s="165"/>
+      <c r="O28" s="165"/>
+      <c r="P28" s="165"/>
+      <c r="Q28" s="165"/>
+      <c r="R28" s="165"/>
+      <c r="S28" s="165"/>
+      <c r="T28" s="165"/>
+      <c r="U28" s="165"/>
+      <c r="V28" s="166"/>
+      <c r="AA28" s="184"/>
+      <c r="AB28" s="185"/>
+      <c r="AC28" s="185"/>
+      <c r="AD28" s="185"/>
+      <c r="AE28" s="185"/>
+      <c r="AF28" s="185"/>
+      <c r="AG28" s="185"/>
+      <c r="AH28" s="185"/>
+      <c r="AI28" s="185"/>
+      <c r="AJ28" s="186"/>
+      <c r="AL28" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="41"/>
+      <c r="AO28" s="42"/>
+      <c r="AP28" s="42"/>
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="30"/>
+    </row>
+    <row r="29" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="118"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="125"/>
+      <c r="S29" s="125"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="125"/>
+      <c r="V29" s="126"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="29"/>
+      <c r="AO29" s="29"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="29"/>
+      <c r="AR29" s="29"/>
+      <c r="AS29" s="30"/>
+    </row>
+    <row r="30" spans="2:45" ht="6.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="118"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="120"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2900,75 +5281,101 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="65" t="s">
+      <c r="M30" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="67"/>
-    </row>
-    <row r="31" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="137"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="137"/>
+      <c r="R30" s="137"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
+      <c r="V30" s="138"/>
+      <c r="AL30" s="28"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="29"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="29"/>
+      <c r="AS30" s="30"/>
+    </row>
+    <row r="31" spans="2:45" ht="17" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="121"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="123"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="88"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
-      <c r="U31" s="69"/>
-      <c r="V31" s="70"/>
-    </row>
-    <row r="32" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="140"/>
+      <c r="O31" s="140"/>
+      <c r="P31" s="140"/>
+      <c r="Q31" s="140"/>
+      <c r="R31" s="140"/>
+      <c r="S31" s="140"/>
+      <c r="T31" s="140"/>
+      <c r="U31" s="140"/>
+      <c r="V31" s="141"/>
+      <c r="AL31" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM31" s="61"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="42"/>
+      <c r="AP31" s="42"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="43"/>
+      <c r="AS31" s="30"/>
+    </row>
+    <row r="32" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="124"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="126"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="91"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
-      <c r="U32" s="69"/>
-      <c r="V32" s="70"/>
-    </row>
-    <row r="33" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="56" t="s">
+      <c r="M32" s="139"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="140"/>
+      <c r="P32" s="140"/>
+      <c r="Q32" s="140"/>
+      <c r="R32" s="140"/>
+      <c r="S32" s="140"/>
+      <c r="T32" s="140"/>
+      <c r="U32" s="140"/>
+      <c r="V32" s="141"/>
+      <c r="AL32" s="28"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="29"/>
+      <c r="AO32" s="29"/>
+      <c r="AP32" s="29"/>
+      <c r="AQ32" s="29"/>
+      <c r="AR32" s="29"/>
+      <c r="AS32" s="30"/>
+    </row>
+    <row r="33" spans="2:45" ht="17" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="129"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="91"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2983,44 +5390,62 @@
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="6"/>
-    </row>
-    <row r="34" spans="2:22" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="59"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
+      <c r="AL33" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM33" s="61"/>
+      <c r="AN33" s="41"/>
+      <c r="AO33" s="42"/>
+      <c r="AP33" s="42"/>
+      <c r="AQ33" s="42"/>
+      <c r="AR33" s="43"/>
+      <c r="AS33" s="30"/>
+    </row>
+    <row r="34" spans="2:45" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="130"/>
+      <c r="C34" s="131"/>
+      <c r="D34" s="132"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="91"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="71" t="s">
+      <c r="M34" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" s="61"/>
+      <c r="O34" s="179" t="s">
         <v>33</v>
       </c>
-      <c r="N34" s="72"/>
-      <c r="O34" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="P34" s="83"/>
+      <c r="P34" s="43"/>
       <c r="Q34" s="14"/>
-      <c r="R34" s="101" t="s">
+      <c r="R34" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="S34" s="72"/>
+      <c r="S34" s="61"/>
       <c r="T34" s="14"/>
       <c r="U34" s="7"/>
       <c r="V34" s="6"/>
-    </row>
-    <row r="35" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="64"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="29"/>
+      <c r="AN34" s="29"/>
+      <c r="AO34" s="29"/>
+      <c r="AP34" s="29"/>
+      <c r="AQ34" s="29"/>
+      <c r="AR34" s="29"/>
+      <c r="AS34" s="30"/>
+    </row>
+    <row r="35" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="133"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="135"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="91"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3035,44 +5460,64 @@
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="6"/>
-    </row>
-    <row r="36" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="27" t="s">
+      <c r="AL35" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM35" s="61"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="42"/>
+      <c r="AP35" s="42"/>
+      <c r="AQ35" s="42"/>
+      <c r="AR35" s="43"/>
+      <c r="AS35" s="30"/>
+    </row>
+    <row r="36" spans="2:45" ht="17" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="114"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="23"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="94"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="73" t="s">
+      <c r="M36" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="74"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
+      <c r="N36" s="143"/>
+      <c r="O36" s="148" t="s">
+        <v>36</v>
+      </c>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
       <c r="T36" s="7"/>
       <c r="U36" s="7"/>
       <c r="V36" s="6"/>
-    </row>
-    <row r="37" spans="2:22" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
+      <c r="AL36" s="28"/>
+      <c r="AM36" s="29"/>
+      <c r="AN36" s="29"/>
+      <c r="AO36" s="29"/>
+      <c r="AP36" s="29"/>
+      <c r="AQ36" s="29"/>
+      <c r="AR36" s="29"/>
+      <c r="AS36" s="30"/>
+    </row>
+    <row r="37" spans="2:45" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="101"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="100"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
+      <c r="F37" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="96"/>
+      <c r="H37" s="97"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3087,46 +5532,66 @@
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="6"/>
-    </row>
-    <row r="38" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
+      <c r="AL37" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM37" s="61"/>
+      <c r="AN37" s="41"/>
+      <c r="AO37" s="42"/>
+      <c r="AP37" s="42"/>
+      <c r="AQ37" s="42"/>
+      <c r="AR37" s="43"/>
+      <c r="AS37" s="30"/>
+    </row>
+    <row r="38" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="102"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="104"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="97"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="75" t="s">
+      <c r="M38" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="N38" s="76"/>
-      <c r="O38" s="77"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="78"/>
+      <c r="N38" s="145"/>
+      <c r="O38" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="P38" s="147"/>
+      <c r="Q38" s="147"/>
+      <c r="R38" s="147"/>
+      <c r="S38" s="147"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
       <c r="V38" s="6"/>
-    </row>
-    <row r="39" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="27" t="s">
+      <c r="AL38" s="28"/>
+      <c r="AM38" s="29"/>
+      <c r="AN38" s="29"/>
+      <c r="AO38" s="29"/>
+      <c r="AP38" s="29"/>
+      <c r="AQ38" s="29"/>
+      <c r="AR38" s="29"/>
+      <c r="AS38" s="30"/>
+    </row>
+    <row r="39" spans="2:45" ht="17" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="114"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="24" t="s">
+      <c r="F39" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="97"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3141,17 +5606,25 @@
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="6"/>
-    </row>
-    <row r="40" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
+      <c r="AL39" s="28"/>
+      <c r="AM39" s="29"/>
+      <c r="AN39" s="208"/>
+      <c r="AO39" s="209"/>
+      <c r="AP39" s="209"/>
+      <c r="AQ39" s="209"/>
+      <c r="AR39" s="210"/>
+      <c r="AS39" s="30"/>
+    </row>
+    <row r="40" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="101"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="100"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="26"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="97"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3160,50 +5633,68 @@
         <v>19</v>
       </c>
       <c r="N40" s="7"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="78"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="78"/>
+      <c r="O40" s="149" t="s">
+        <v>38</v>
+      </c>
+      <c r="P40" s="150"/>
+      <c r="Q40" s="150"/>
+      <c r="R40" s="150"/>
+      <c r="S40" s="150"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="6"/>
-    </row>
-    <row r="41" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
+      <c r="AL40" s="28"/>
+      <c r="AM40" s="29"/>
+      <c r="AN40" s="211"/>
+      <c r="AO40" s="212"/>
+      <c r="AP40" s="212"/>
+      <c r="AQ40" s="212"/>
+      <c r="AR40" s="213"/>
+      <c r="AS40" s="30"/>
+    </row>
+    <row r="41" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="102"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="104"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="90" t="s">
+      <c r="F41" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="G41" s="91"/>
-      <c r="H41" s="92"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="171"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="5"/>
       <c r="N41" s="7"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
-      <c r="Q41" s="78"/>
-      <c r="R41" s="78"/>
-      <c r="S41" s="78"/>
+      <c r="O41" s="150"/>
+      <c r="P41" s="150"/>
+      <c r="Q41" s="150"/>
+      <c r="R41" s="150"/>
+      <c r="S41" s="150"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="6"/>
-    </row>
-    <row r="42" spans="2:22" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="36"/>
-      <c r="D42" s="37"/>
+      <c r="AL41" s="28"/>
+      <c r="AM41" s="29"/>
+      <c r="AN41" s="211"/>
+      <c r="AO41" s="212"/>
+      <c r="AP41" s="212"/>
+      <c r="AQ41" s="212"/>
+      <c r="AR41" s="213"/>
+      <c r="AS41" s="30"/>
+    </row>
+    <row r="42" spans="2:45" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="106"/>
+      <c r="D42" s="107"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="92"/>
+      <c r="F42" s="172"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="171"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3218,17 +5709,25 @@
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
       <c r="V42" s="6"/>
-    </row>
-    <row r="43" spans="2:22" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
+      <c r="AL42" s="28"/>
+      <c r="AM42" s="29"/>
+      <c r="AN42" s="211"/>
+      <c r="AO42" s="212"/>
+      <c r="AP42" s="212"/>
+      <c r="AQ42" s="212"/>
+      <c r="AR42" s="213"/>
+      <c r="AS42" s="30"/>
+    </row>
+    <row r="43" spans="2:45" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="98"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="109"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="94" t="s">
+      <c r="F43" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="95"/>
-      <c r="H43" s="96"/>
+      <c r="G43" s="174"/>
+      <c r="H43" s="175"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3236,57 +5735,87 @@
       <c r="M43" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N43" s="13" t="s">
+      <c r="N43" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="13" t="s">
+      <c r="O43" s="81"/>
+      <c r="P43" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="P43" s="13" t="s">
+      <c r="Q43" s="83"/>
+      <c r="R43" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q43" s="13" t="s">
+      <c r="S43" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R43" s="13" t="s">
+      <c r="T43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S43" s="13" t="s">
+      <c r="U43" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="6"/>
-    </row>
-    <row r="44" spans="2:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="41"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="43"/>
+      <c r="V43" s="84"/>
+      <c r="AL43" s="28"/>
+      <c r="AM43" s="29"/>
+      <c r="AN43" s="211"/>
+      <c r="AO43" s="212"/>
+      <c r="AP43" s="212"/>
+      <c r="AQ43" s="212"/>
+      <c r="AR43" s="213"/>
+      <c r="AS43" s="30"/>
+    </row>
+    <row r="44" spans="2:45" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="110"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="112"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="99"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="177"/>
+      <c r="H44" s="178"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="6"/>
-    </row>
-    <row r="45" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
+      <c r="M44" s="17">
+        <v>1</v>
+      </c>
+      <c r="N44" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="O44" s="84"/>
+      <c r="P44" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q44" s="84"/>
+      <c r="R44" s="18">
+        <v>1300</v>
+      </c>
+      <c r="S44" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T44" s="13">
+        <v>100</v>
+      </c>
+      <c r="U44" s="85">
+        <v>130000</v>
+      </c>
+      <c r="V44" s="84"/>
+      <c r="AL44" s="28"/>
+      <c r="AM44" s="29"/>
+      <c r="AN44" s="211"/>
+      <c r="AO44" s="212"/>
+      <c r="AP44" s="212"/>
+      <c r="AQ44" s="212"/>
+      <c r="AR44" s="213"/>
+      <c r="AS44" s="30"/>
+    </row>
+    <row r="45" spans="2:45" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="113"/>
+      <c r="D45" s="114"/>
       <c r="E45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -3299,14 +5828,22 @@
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
       <c r="S45" s="12"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="6"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="AL45" s="28"/>
+      <c r="AM45" s="29"/>
+      <c r="AN45" s="211"/>
+      <c r="AO45" s="212"/>
+      <c r="AP45" s="212"/>
+      <c r="AQ45" s="212"/>
+      <c r="AR45" s="213"/>
+      <c r="AS45" s="30"/>
+    </row>
+    <row r="46" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B46" s="101"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="100"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -3322,14 +5859,22 @@
       <c r="Q46" s="12"/>
       <c r="R46" s="12"/>
       <c r="S46" s="12"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="6"/>
-    </row>
-    <row r="47" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="33"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="29"/>
+      <c r="AN46" s="211"/>
+      <c r="AO46" s="212"/>
+      <c r="AP46" s="212"/>
+      <c r="AQ46" s="212"/>
+      <c r="AR46" s="213"/>
+      <c r="AS46" s="30"/>
+    </row>
+    <row r="47" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="102"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="104"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -3345,16 +5890,24 @@
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
       <c r="S47" s="12"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="6"/>
-    </row>
-    <row r="48" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="AL47" s="28"/>
+      <c r="AM47" s="29"/>
+      <c r="AN47" s="211"/>
+      <c r="AO47" s="212"/>
+      <c r="AP47" s="212"/>
+      <c r="AQ47" s="212"/>
+      <c r="AR47" s="213"/>
+      <c r="AS47" s="30"/>
+    </row>
+    <row r="48" spans="2:45" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="113"/>
+      <c r="D48" s="114"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -3370,14 +5923,22 @@
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
       <c r="S48" s="12"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="6"/>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="AL48" s="28"/>
+      <c r="AM48" s="29"/>
+      <c r="AN48" s="214"/>
+      <c r="AO48" s="215"/>
+      <c r="AP48" s="215"/>
+      <c r="AQ48" s="215"/>
+      <c r="AR48" s="216"/>
+      <c r="AS48" s="30"/>
+    </row>
+    <row r="49" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B49" s="101"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="100"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -3393,14 +5954,24 @@
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
       <c r="S49" s="12"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="6"/>
-    </row>
-    <row r="50" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="33"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="AL49" s="28"/>
+      <c r="AM49" s="29"/>
+      <c r="AN49" s="222" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO49" s="217"/>
+      <c r="AP49" s="217"/>
+      <c r="AQ49" s="217"/>
+      <c r="AR49" s="218"/>
+      <c r="AS49" s="30"/>
+    </row>
+    <row r="50" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="102"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="104"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -3416,16 +5987,24 @@
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
       <c r="S50" s="12"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="6"/>
-    </row>
-    <row r="51" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="37"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="AL50" s="28"/>
+      <c r="AM50" s="29"/>
+      <c r="AN50" s="219"/>
+      <c r="AO50" s="220"/>
+      <c r="AP50" s="220"/>
+      <c r="AQ50" s="220"/>
+      <c r="AR50" s="221"/>
+      <c r="AS50" s="30"/>
+    </row>
+    <row r="51" spans="2:45" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="106"/>
+      <c r="D51" s="107"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -3441,14 +6020,22 @@
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
       <c r="S51" s="12"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="6"/>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="AL51" s="28"/>
+      <c r="AM51" s="29"/>
+      <c r="AN51" s="29"/>
+      <c r="AO51" s="29"/>
+      <c r="AP51" s="29"/>
+      <c r="AQ51" s="29"/>
+      <c r="AR51" s="29"/>
+      <c r="AS51" s="30"/>
+    </row>
+    <row r="52" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B52" s="98"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="109"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3464,14 +6051,24 @@
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
       <c r="S52" s="12"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="6"/>
-    </row>
-    <row r="53" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="41"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="43"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="AL52" s="28"/>
+      <c r="AM52" s="29"/>
+      <c r="AN52" s="29"/>
+      <c r="AO52" s="29"/>
+      <c r="AP52" s="29"/>
+      <c r="AQ52" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR52" s="36"/>
+      <c r="AS52" s="30"/>
+    </row>
+    <row r="53" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="110"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="112"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -3487,16 +6084,24 @@
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
       <c r="S53" s="12"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="6"/>
-    </row>
-    <row r="54" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="29"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="AL53" s="28"/>
+      <c r="AM53" s="29"/>
+      <c r="AN53" s="29"/>
+      <c r="AO53" s="29"/>
+      <c r="AP53" s="29"/>
+      <c r="AQ53" s="37"/>
+      <c r="AR53" s="38"/>
+      <c r="AS53" s="30"/>
+    </row>
+    <row r="54" spans="2:45" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="113"/>
+      <c r="D54" s="114"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -3512,14 +6117,22 @@
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="6"/>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="32"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="AL54" s="199"/>
+      <c r="AM54" s="200"/>
+      <c r="AN54" s="200"/>
+      <c r="AO54" s="200"/>
+      <c r="AP54" s="200"/>
+      <c r="AQ54" s="200"/>
+      <c r="AR54" s="200"/>
+      <c r="AS54" s="201"/>
+    </row>
+    <row r="55" spans="2:45" x14ac:dyDescent="0.35">
+      <c r="B55" s="101"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="100"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3535,14 +6148,14 @@
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
       <c r="S55" s="12"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="6"/>
-    </row>
-    <row r="56" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="33"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="35"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+    </row>
+    <row r="56" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="102"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="104"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -3558,16 +6171,16 @@
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
       <c r="S56" s="12"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="6"/>
-    </row>
-    <row r="57" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="29"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+    </row>
+    <row r="57" spans="2:45" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="113"/>
+      <c r="D57" s="114"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -3576,21 +6189,21 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="6"/>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="32"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+    </row>
+    <row r="58" spans="2:45" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="101"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="100"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -3610,10 +6223,10 @@
       <c r="U58" s="7"/>
       <c r="V58" s="6"/>
     </row>
-    <row r="59" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="33"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="35"/>
+    <row r="59" spans="2:45" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="102"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="104"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -3622,25 +6235,27 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="71" t="s">
+      <c r="M59" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="N59" s="72"/>
-      <c r="O59" s="72"/>
-      <c r="P59" s="79"/>
-      <c r="Q59" s="80"/>
-      <c r="R59" s="81"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q59" s="152"/>
+      <c r="R59" s="153"/>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="6"/>
     </row>
-    <row r="60" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="29"/>
+    <row r="60" spans="2:45" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="113"/>
+      <c r="D60" s="114"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -3659,11 +6274,39 @@
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
       <c r="V60" s="6"/>
-    </row>
-    <row r="61" spans="2:22" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B61" s="30"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="32"/>
+      <c r="AA60" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB60" s="47"/>
+      <c r="AC60" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD60" s="47"/>
+      <c r="AE60" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF60" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG60" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH60" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI60" s="47"/>
+      <c r="AJ60" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK60" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL60" s="47"/>
+    </row>
+    <row r="61" spans="2:45" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B61" s="101"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="100"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -3672,23 +6315,37 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="71" t="s">
+      <c r="M61" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="79"/>
-      <c r="Q61" s="80"/>
-      <c r="R61" s="81"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q61" s="152"/>
+      <c r="R61" s="153"/>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="6"/>
-    </row>
-    <row r="62" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="33"/>
-      <c r="C62" s="34"/>
-      <c r="D62" s="35"/>
+      <c r="AA61" s="48"/>
+      <c r="AB61" s="49"/>
+      <c r="AC61" s="48"/>
+      <c r="AD61" s="49"/>
+      <c r="AE61" s="45"/>
+      <c r="AF61" s="45"/>
+      <c r="AG61" s="45"/>
+      <c r="AH61" s="48"/>
+      <c r="AI61" s="49"/>
+      <c r="AJ61" s="51"/>
+      <c r="AK61" s="48"/>
+      <c r="AL61" s="49"/>
+    </row>
+    <row r="62" spans="2:45" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="102"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="104"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -3707,13 +6364,39 @@
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
       <c r="V62" s="6"/>
-    </row>
-    <row r="63" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="28"/>
-      <c r="D63" s="29"/>
+      <c r="AA62" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB62" s="53"/>
+      <c r="AC62" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD62" s="53"/>
+      <c r="AE62" s="66">
+        <v>990</v>
+      </c>
+      <c r="AF62" s="66">
+        <v>1300</v>
+      </c>
+      <c r="AG62" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH62" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI62" s="53"/>
+      <c r="AJ62" s="50">
+        <v>10000</v>
+      </c>
+      <c r="AK62" s="56"/>
+      <c r="AL62" s="57"/>
+    </row>
+    <row r="63" spans="2:45" ht="17" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="113"/>
+      <c r="D63" s="114"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -3722,23 +6405,37 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="71" t="s">
+      <c r="M63" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="N63" s="72"/>
+      <c r="N63" s="61"/>
       <c r="O63" s="7"/>
-      <c r="P63" s="79"/>
-      <c r="Q63" s="82"/>
-      <c r="R63" s="83"/>
+      <c r="P63" s="154" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="43"/>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="6"/>
-    </row>
-    <row r="64" spans="2:22" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B64" s="30"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="32"/>
+      <c r="AA63" s="54"/>
+      <c r="AB63" s="55"/>
+      <c r="AC63" s="54"/>
+      <c r="AD63" s="55"/>
+      <c r="AE63" s="51"/>
+      <c r="AF63" s="51"/>
+      <c r="AG63" s="51"/>
+      <c r="AH63" s="54"/>
+      <c r="AI63" s="55"/>
+      <c r="AJ63" s="51"/>
+      <c r="AK63" s="58"/>
+      <c r="AL63" s="59"/>
+    </row>
+    <row r="64" spans="2:45" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B64" s="101"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="100"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -3747,11 +6444,11 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="N64" s="72"/>
-      <c r="O64" s="7"/>
+      <c r="M64" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
@@ -3759,11 +6456,23 @@
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
       <c r="V64" s="6"/>
-    </row>
-    <row r="65" spans="2:22" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="33"/>
-      <c r="C65" s="34"/>
-      <c r="D65" s="35"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="21"/>
+      <c r="AC64" s="21"/>
+      <c r="AD64" s="21"/>
+      <c r="AE64" s="21"/>
+      <c r="AF64" s="21"/>
+      <c r="AG64" s="21"/>
+      <c r="AH64" s="21"/>
+      <c r="AI64" s="21"/>
+      <c r="AJ64" s="21"/>
+      <c r="AK64" s="21"/>
+      <c r="AL64" s="22"/>
+    </row>
+    <row r="65" spans="2:38" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="102"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="104"/>
       <c r="E65" s="4"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -3772,11 +6481,11 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="N65" s="72"/>
-      <c r="O65" s="7"/>
+      <c r="M65" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
@@ -3784,13 +6493,23 @@
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="6"/>
-    </row>
-    <row r="66" spans="2:22" ht="17" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="29"/>
+      <c r="AA65" s="23"/>
+      <c r="AB65" s="12"/>
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="12"/>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="12"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="24"/>
+    </row>
+    <row r="66" spans="2:38" ht="17" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="98"/>
+      <c r="C66" s="99"/>
+      <c r="D66" s="100"/>
       <c r="E66" s="4"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -3799,10 +6518,10 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="N66" s="103"/>
+      <c r="M66" s="167" t="s">
+        <v>44</v>
+      </c>
+      <c r="N66" s="168"/>
       <c r="O66" s="7"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
@@ -3811,11 +6530,23 @@
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
       <c r="V66" s="6"/>
-    </row>
-    <row r="67" spans="2:22" ht="17" x14ac:dyDescent="0.4">
-      <c r="B67" s="30"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="32"/>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="12"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="24"/>
+    </row>
+    <row r="67" spans="2:38" ht="17" x14ac:dyDescent="0.4">
+      <c r="B67" s="101"/>
+      <c r="C67" s="99"/>
+      <c r="D67" s="100"/>
       <c r="E67" s="4"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -3824,10 +6555,10 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="N67" s="7"/>
+      <c r="M67" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="N67" s="61"/>
       <c r="O67" s="7"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
@@ -3836,11 +6567,23 @@
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="6"/>
-    </row>
-    <row r="68" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="33"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="35"/>
+      <c r="AA67" s="23"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="12"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="24"/>
+    </row>
+    <row r="68" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="101"/>
+      <c r="C68" s="99"/>
+      <c r="D68" s="100"/>
       <c r="E68" s="4"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -3859,11 +6602,23 @@
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
       <c r="V68" s="6"/>
-    </row>
-    <row r="69" spans="2:22" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="27"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="29"/>
+      <c r="AA68" s="23"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="12"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="24"/>
+    </row>
+    <row r="69" spans="2:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="98"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="100"/>
       <c r="E69" s="4"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -3873,22 +6628,34 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="5"/>
-      <c r="N69" s="105" t="s">
-        <v>31</v>
-      </c>
-      <c r="O69" s="106"/>
-      <c r="P69" s="106"/>
-      <c r="Q69" s="106"/>
-      <c r="R69" s="106"/>
-      <c r="S69" s="106"/>
-      <c r="T69" s="106"/>
-      <c r="U69" s="107"/>
+      <c r="N69" s="155" t="s">
+        <v>30</v>
+      </c>
+      <c r="O69" s="156"/>
+      <c r="P69" s="156"/>
+      <c r="Q69" s="156"/>
+      <c r="R69" s="156"/>
+      <c r="S69" s="156"/>
+      <c r="T69" s="156"/>
+      <c r="U69" s="157"/>
       <c r="V69" s="6"/>
-    </row>
-    <row r="70" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="30"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="24"/>
+    </row>
+    <row r="70" spans="2:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="101"/>
+      <c r="C70" s="99"/>
+      <c r="D70" s="100"/>
       <c r="E70" s="4"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -3898,20 +6665,32 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="5"/>
-      <c r="N70" s="108"/>
-      <c r="O70" s="109"/>
-      <c r="P70" s="109"/>
-      <c r="Q70" s="109"/>
-      <c r="R70" s="109"/>
-      <c r="S70" s="109"/>
-      <c r="T70" s="109"/>
-      <c r="U70" s="110"/>
+      <c r="N70" s="158"/>
+      <c r="O70" s="159"/>
+      <c r="P70" s="159"/>
+      <c r="Q70" s="159"/>
+      <c r="R70" s="159"/>
+      <c r="S70" s="159"/>
+      <c r="T70" s="159"/>
+      <c r="U70" s="160"/>
       <c r="V70" s="6"/>
-    </row>
-    <row r="71" spans="2:22" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="33"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="35"/>
+      <c r="AA70" s="23"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="12"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="24"/>
+    </row>
+    <row r="71" spans="2:38" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="102"/>
+      <c r="C71" s="103"/>
+      <c r="D71" s="104"/>
       <c r="E71" s="2"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -3930,11 +6709,573 @@
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
       <c r="V71" s="10"/>
-    </row>
-    <row r="72" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="AA71" s="25"/>
+      <c r="AB71" s="26"/>
+      <c r="AC71" s="26"/>
+      <c r="AD71" s="26"/>
+      <c r="AE71" s="26"/>
+      <c r="AF71" s="26"/>
+      <c r="AG71" s="26"/>
+      <c r="AH71" s="26"/>
+      <c r="AI71" s="26"/>
+      <c r="AJ71" s="26"/>
+      <c r="AK71" s="26"/>
+      <c r="AL71" s="27"/>
+    </row>
+    <row r="72" spans="2:38" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AA76" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB76" s="68"/>
+      <c r="AC76" s="68"/>
+      <c r="AD76" s="68"/>
+      <c r="AE76" s="68"/>
+      <c r="AF76" s="68"/>
+      <c r="AG76" s="68"/>
+      <c r="AH76" s="68"/>
+      <c r="AI76" s="68"/>
+      <c r="AJ76" s="69"/>
+    </row>
+    <row r="77" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AA77" s="70"/>
+      <c r="AB77" s="71"/>
+      <c r="AC77" s="71"/>
+      <c r="AD77" s="71"/>
+      <c r="AE77" s="71"/>
+      <c r="AF77" s="71"/>
+      <c r="AG77" s="71"/>
+      <c r="AH77" s="71"/>
+      <c r="AI77" s="71"/>
+      <c r="AJ77" s="72"/>
+    </row>
+    <row r="78" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AA78" s="28"/>
+      <c r="AB78" s="29"/>
+      <c r="AC78" s="29"/>
+      <c r="AD78" s="29"/>
+      <c r="AE78" s="29"/>
+      <c r="AF78" s="29"/>
+      <c r="AG78" s="29"/>
+      <c r="AH78" s="29"/>
+      <c r="AI78" s="29"/>
+      <c r="AJ78" s="30"/>
+    </row>
+    <row r="79" spans="2:38" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AA79" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB79" s="40"/>
+      <c r="AC79" s="41"/>
+      <c r="AD79" s="42"/>
+      <c r="AE79" s="42"/>
+      <c r="AF79" s="42"/>
+      <c r="AG79" s="42"/>
+      <c r="AH79" s="43"/>
+      <c r="AI79" s="29"/>
+      <c r="AJ79" s="30"/>
+    </row>
+    <row r="80" spans="2:38" x14ac:dyDescent="0.35">
+      <c r="AA80" s="28"/>
+      <c r="AB80" s="29"/>
+      <c r="AC80" s="29"/>
+      <c r="AD80" s="29"/>
+      <c r="AE80" s="29"/>
+      <c r="AF80" s="29"/>
+      <c r="AG80" s="29"/>
+      <c r="AH80" s="29"/>
+      <c r="AI80" s="29"/>
+      <c r="AJ80" s="30"/>
+    </row>
+    <row r="81" spans="7:36" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G81" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" s="76"/>
+      <c r="I81" s="76"/>
+      <c r="J81" s="76"/>
+      <c r="K81" s="76"/>
+      <c r="L81" s="76"/>
+      <c r="M81" s="57"/>
+      <c r="AA81" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB81" s="40"/>
+      <c r="AC81" s="41"/>
+      <c r="AD81" s="42"/>
+      <c r="AE81" s="42"/>
+      <c r="AF81" s="42"/>
+      <c r="AG81" s="42"/>
+      <c r="AH81" s="43"/>
+      <c r="AI81" s="29"/>
+      <c r="AJ81" s="30"/>
+    </row>
+    <row r="82" spans="7:36" x14ac:dyDescent="0.35">
+      <c r="G82" s="77"/>
+      <c r="H82" s="78"/>
+      <c r="I82" s="78"/>
+      <c r="J82" s="78"/>
+      <c r="K82" s="78"/>
+      <c r="L82" s="78"/>
+      <c r="M82" s="79"/>
+      <c r="AA82" s="28"/>
+      <c r="AB82" s="29"/>
+      <c r="AC82" s="29"/>
+      <c r="AD82" s="29"/>
+      <c r="AE82" s="29"/>
+      <c r="AF82" s="29"/>
+      <c r="AG82" s="29"/>
+      <c r="AH82" s="29"/>
+      <c r="AI82" s="29"/>
+      <c r="AJ82" s="30"/>
+    </row>
+    <row r="83" spans="7:36" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G83" s="60"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="61"/>
+      <c r="K83" s="61"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="62"/>
+      <c r="AA83" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB83" s="40"/>
+      <c r="AC83" s="41"/>
+      <c r="AD83" s="42"/>
+      <c r="AE83" s="42"/>
+      <c r="AF83" s="42"/>
+      <c r="AG83" s="42"/>
+      <c r="AH83" s="43"/>
+      <c r="AI83" s="29"/>
+      <c r="AJ83" s="30"/>
+    </row>
+    <row r="84" spans="7:36" x14ac:dyDescent="0.35">
+      <c r="G84" s="60"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="61"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="62"/>
+      <c r="AA84" s="28"/>
+      <c r="AB84" s="29"/>
+      <c r="AC84" s="29"/>
+      <c r="AD84" s="29"/>
+      <c r="AE84" s="29"/>
+      <c r="AF84" s="29"/>
+      <c r="AG84" s="29"/>
+      <c r="AH84" s="29"/>
+      <c r="AI84" s="29"/>
+      <c r="AJ84" s="30"/>
+    </row>
+    <row r="85" spans="7:36" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G85" s="60"/>
+      <c r="H85" s="61"/>
+      <c r="I85" s="61"/>
+      <c r="J85" s="61"/>
+      <c r="K85" s="61"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="62"/>
+      <c r="AA85" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB85" s="40"/>
+      <c r="AC85" s="41"/>
+      <c r="AD85" s="42"/>
+      <c r="AE85" s="42"/>
+      <c r="AF85" s="42"/>
+      <c r="AG85" s="42"/>
+      <c r="AH85" s="43"/>
+      <c r="AI85" s="29"/>
+      <c r="AJ85" s="30"/>
+    </row>
+    <row r="86" spans="7:36" x14ac:dyDescent="0.35">
+      <c r="G86" s="60"/>
+      <c r="H86" s="61"/>
+      <c r="I86" s="61"/>
+      <c r="J86" s="61"/>
+      <c r="K86" s="61"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="62"/>
+      <c r="AA86" s="28"/>
+      <c r="AB86" s="29"/>
+      <c r="AC86" s="29"/>
+      <c r="AD86" s="29"/>
+      <c r="AE86" s="29"/>
+      <c r="AF86" s="29"/>
+      <c r="AG86" s="29"/>
+      <c r="AH86" s="29"/>
+      <c r="AI86" s="29"/>
+      <c r="AJ86" s="30"/>
+    </row>
+    <row r="87" spans="7:36" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G87" s="60"/>
+      <c r="H87" s="61"/>
+      <c r="I87" s="61"/>
+      <c r="J87" s="61"/>
+      <c r="K87" s="61"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="62"/>
+      <c r="AA87" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB87" s="40"/>
+      <c r="AC87" s="41"/>
+      <c r="AD87" s="42"/>
+      <c r="AE87" s="42"/>
+      <c r="AF87" s="42"/>
+      <c r="AG87" s="42"/>
+      <c r="AH87" s="43"/>
+      <c r="AI87" s="29"/>
+      <c r="AJ87" s="30"/>
+    </row>
+    <row r="88" spans="7:36" x14ac:dyDescent="0.35">
+      <c r="G88" s="60"/>
+      <c r="H88" s="61"/>
+      <c r="I88" s="61"/>
+      <c r="J88" s="61"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="61"/>
+      <c r="M88" s="62"/>
+      <c r="AA88" s="28"/>
+      <c r="AB88" s="29"/>
+      <c r="AC88" s="29"/>
+      <c r="AD88" s="29"/>
+      <c r="AE88" s="29"/>
+      <c r="AF88" s="29"/>
+      <c r="AG88" s="29"/>
+      <c r="AH88" s="29"/>
+      <c r="AI88" s="29"/>
+      <c r="AJ88" s="30"/>
+    </row>
+    <row r="89" spans="7:36" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G89" s="60"/>
+      <c r="H89" s="61"/>
+      <c r="I89" s="61"/>
+      <c r="J89" s="61"/>
+      <c r="K89" s="61"/>
+      <c r="L89" s="61"/>
+      <c r="M89" s="62"/>
+      <c r="AA89" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB89" s="40"/>
+      <c r="AC89" s="41"/>
+      <c r="AD89" s="42"/>
+      <c r="AE89" s="42"/>
+      <c r="AF89" s="42"/>
+      <c r="AG89" s="42"/>
+      <c r="AH89" s="43"/>
+      <c r="AI89" s="29"/>
+      <c r="AJ89" s="30"/>
+    </row>
+    <row r="90" spans="7:36" x14ac:dyDescent="0.35">
+      <c r="G90" s="60"/>
+      <c r="H90" s="61"/>
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="62"/>
+      <c r="AA90" s="28"/>
+      <c r="AB90" s="29"/>
+      <c r="AC90" s="29"/>
+      <c r="AD90" s="29"/>
+      <c r="AE90" s="29"/>
+      <c r="AF90" s="29"/>
+      <c r="AG90" s="29"/>
+      <c r="AH90" s="29"/>
+      <c r="AI90" s="29"/>
+      <c r="AJ90" s="30"/>
+    </row>
+    <row r="91" spans="7:36" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="G91" s="60"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="61"/>
+      <c r="L91" s="61"/>
+      <c r="M91" s="62"/>
+      <c r="AA91" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB91" s="40"/>
+      <c r="AC91" s="29"/>
+      <c r="AD91" s="31"/>
+      <c r="AE91" s="32"/>
+      <c r="AF91" s="32"/>
+      <c r="AG91" s="33"/>
+      <c r="AH91" s="29"/>
+      <c r="AI91" s="29"/>
+      <c r="AJ91" s="30"/>
+    </row>
+    <row r="92" spans="7:36" x14ac:dyDescent="0.35">
+      <c r="G92" s="63"/>
+      <c r="H92" s="64"/>
+      <c r="I92" s="64"/>
+      <c r="J92" s="64"/>
+      <c r="K92" s="64"/>
+      <c r="L92" s="64"/>
+      <c r="M92" s="65"/>
+      <c r="AA92" s="28"/>
+      <c r="AB92" s="29"/>
+      <c r="AC92" s="29"/>
+      <c r="AD92" s="29"/>
+      <c r="AE92" s="29"/>
+      <c r="AF92" s="29"/>
+      <c r="AG92" s="29"/>
+      <c r="AH92" s="29"/>
+      <c r="AI92" s="29"/>
+      <c r="AJ92" s="30"/>
+    </row>
+    <row r="93" spans="7:36" x14ac:dyDescent="0.35">
+      <c r="AA93" s="28"/>
+      <c r="AB93" s="29"/>
+      <c r="AC93" s="29"/>
+      <c r="AD93" s="29"/>
+      <c r="AE93" s="29"/>
+      <c r="AF93" s="29"/>
+      <c r="AG93" s="29"/>
+      <c r="AH93" s="29"/>
+      <c r="AI93" s="29"/>
+      <c r="AJ93" s="30"/>
+    </row>
+    <row r="94" spans="7:36" x14ac:dyDescent="0.35">
+      <c r="AA94" s="28"/>
+      <c r="AB94" s="29"/>
+      <c r="AC94" s="29"/>
+      <c r="AD94" s="34"/>
+      <c r="AE94" s="34"/>
+      <c r="AF94" s="34"/>
+      <c r="AG94" s="34"/>
+      <c r="AH94" s="29"/>
+      <c r="AI94" s="29"/>
+      <c r="AJ94" s="30"/>
+    </row>
+    <row r="95" spans="7:36" x14ac:dyDescent="0.35">
+      <c r="AA95" s="28"/>
+      <c r="AB95" s="29"/>
+      <c r="AC95" s="29"/>
+      <c r="AD95" s="34"/>
+      <c r="AE95" s="34"/>
+      <c r="AF95" s="34"/>
+      <c r="AG95" s="34"/>
+      <c r="AH95" s="29"/>
+      <c r="AI95" s="29"/>
+      <c r="AJ95" s="30"/>
+    </row>
+    <row r="96" spans="7:36" x14ac:dyDescent="0.35">
+      <c r="AA96" s="28"/>
+      <c r="AB96" s="29"/>
+      <c r="AC96" s="29"/>
+      <c r="AD96" s="34"/>
+      <c r="AE96" s="34"/>
+      <c r="AF96" s="34"/>
+      <c r="AG96" s="34"/>
+      <c r="AH96" s="29"/>
+      <c r="AI96" s="29"/>
+      <c r="AJ96" s="30"/>
+    </row>
+    <row r="97" spans="27:36" x14ac:dyDescent="0.35">
+      <c r="AA97" s="28"/>
+      <c r="AB97" s="29"/>
+      <c r="AC97" s="29"/>
+      <c r="AD97" s="34"/>
+      <c r="AE97" s="34"/>
+      <c r="AF97" s="34"/>
+      <c r="AG97" s="34"/>
+      <c r="AH97" s="29"/>
+      <c r="AI97" s="29"/>
+      <c r="AJ97" s="30"/>
+    </row>
+    <row r="98" spans="27:36" x14ac:dyDescent="0.35">
+      <c r="AA98" s="28"/>
+      <c r="AB98" s="29"/>
+      <c r="AC98" s="29"/>
+      <c r="AD98" s="34"/>
+      <c r="AE98" s="34"/>
+      <c r="AF98" s="34"/>
+      <c r="AG98" s="34"/>
+      <c r="AH98" s="29"/>
+      <c r="AI98" s="29"/>
+      <c r="AJ98" s="30"/>
+    </row>
+    <row r="99" spans="27:36" x14ac:dyDescent="0.35">
+      <c r="AA99" s="28"/>
+      <c r="AB99" s="29"/>
+      <c r="AC99" s="29"/>
+      <c r="AD99" s="34"/>
+      <c r="AE99" s="34"/>
+      <c r="AF99" s="34"/>
+      <c r="AG99" s="34"/>
+      <c r="AH99" s="29"/>
+      <c r="AI99" s="29"/>
+      <c r="AJ99" s="30"/>
+    </row>
+    <row r="100" spans="27:36" x14ac:dyDescent="0.35">
+      <c r="AA100" s="28"/>
+      <c r="AB100" s="29"/>
+      <c r="AC100" s="29"/>
+      <c r="AD100" s="34"/>
+      <c r="AE100" s="34"/>
+      <c r="AF100" s="34"/>
+      <c r="AG100" s="34"/>
+      <c r="AH100" s="29"/>
+      <c r="AI100" s="29"/>
+      <c r="AJ100" s="30"/>
+    </row>
+    <row r="101" spans="27:36" x14ac:dyDescent="0.35">
+      <c r="AA101" s="28"/>
+      <c r="AB101" s="29"/>
+      <c r="AC101" s="29"/>
+      <c r="AD101" s="34"/>
+      <c r="AE101" s="34"/>
+      <c r="AF101" s="34"/>
+      <c r="AG101" s="34"/>
+      <c r="AH101" s="29"/>
+      <c r="AI101" s="29"/>
+      <c r="AJ101" s="30"/>
+    </row>
+    <row r="102" spans="27:36" x14ac:dyDescent="0.35">
+      <c r="AA102" s="28"/>
+      <c r="AB102" s="29"/>
+      <c r="AC102" s="29"/>
+      <c r="AD102" s="29"/>
+      <c r="AE102" s="29"/>
+      <c r="AF102" s="29"/>
+      <c r="AG102" s="29"/>
+      <c r="AH102" s="29"/>
+      <c r="AI102" s="29"/>
+      <c r="AJ102" s="30"/>
+    </row>
+    <row r="103" spans="27:36" x14ac:dyDescent="0.35">
+      <c r="AA103" s="28"/>
+      <c r="AB103" s="29"/>
+      <c r="AC103" s="29"/>
+      <c r="AD103" s="29"/>
+      <c r="AE103" s="29"/>
+      <c r="AF103" s="29"/>
+      <c r="AG103" s="29"/>
+      <c r="AH103" s="29"/>
+      <c r="AI103" s="29"/>
+      <c r="AJ103" s="30"/>
+    </row>
+    <row r="104" spans="27:36" x14ac:dyDescent="0.35">
+      <c r="AA104" s="28"/>
+      <c r="AB104" s="29"/>
+      <c r="AC104" s="29"/>
+      <c r="AD104" s="29"/>
+      <c r="AE104" s="29"/>
+      <c r="AF104" s="29"/>
+      <c r="AG104" s="29"/>
+      <c r="AH104" s="29"/>
+      <c r="AI104" s="29"/>
+      <c r="AJ104" s="30"/>
+    </row>
+    <row r="105" spans="27:36" x14ac:dyDescent="0.35">
+      <c r="AA105" s="28"/>
+      <c r="AB105" s="29"/>
+      <c r="AC105" s="29"/>
+      <c r="AD105" s="29"/>
+      <c r="AE105" s="29"/>
+      <c r="AF105" s="29"/>
+      <c r="AG105" s="29"/>
+      <c r="AH105" s="29"/>
+      <c r="AI105" s="29"/>
+      <c r="AJ105" s="30"/>
+    </row>
+    <row r="106" spans="27:36" x14ac:dyDescent="0.35">
+      <c r="AA106" s="28"/>
+      <c r="AB106" s="29"/>
+      <c r="AC106" s="29"/>
+      <c r="AD106" s="29"/>
+      <c r="AE106" s="29"/>
+      <c r="AF106" s="29"/>
+      <c r="AG106" s="29"/>
+      <c r="AH106" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI106" s="36"/>
+      <c r="AJ106" s="30"/>
+    </row>
+    <row r="107" spans="27:36" x14ac:dyDescent="0.35">
+      <c r="AA107" s="28"/>
+      <c r="AB107" s="29"/>
+      <c r="AC107" s="29"/>
+      <c r="AD107" s="29"/>
+      <c r="AE107" s="29"/>
+      <c r="AF107" s="29"/>
+      <c r="AG107" s="29"/>
+      <c r="AH107" s="37"/>
+      <c r="AI107" s="38"/>
+      <c r="AJ107" s="30"/>
+    </row>
+    <row r="108" spans="27:36" x14ac:dyDescent="0.35">
+      <c r="AA108" s="28"/>
+      <c r="AB108" s="29"/>
+      <c r="AC108" s="29"/>
+      <c r="AD108" s="29"/>
+      <c r="AE108" s="29"/>
+      <c r="AF108" s="29"/>
+      <c r="AG108" s="29"/>
+      <c r="AH108" s="29"/>
+      <c r="AI108" s="29"/>
+      <c r="AJ108" s="30"/>
+    </row>
+    <row r="109" spans="27:36" x14ac:dyDescent="0.35">
+      <c r="AA109" s="28"/>
+      <c r="AB109" s="29"/>
+      <c r="AC109" s="29"/>
+      <c r="AD109" s="29"/>
+      <c r="AE109" s="29"/>
+      <c r="AF109" s="29"/>
+      <c r="AG109" s="29"/>
+      <c r="AH109" s="29"/>
+      <c r="AI109" s="29"/>
+      <c r="AJ109" s="30"/>
+    </row>
+    <row r="110" spans="27:36" x14ac:dyDescent="0.35">
+      <c r="AA110" s="19"/>
+      <c r="AB110" s="19"/>
+      <c r="AC110" s="19"/>
+      <c r="AD110" s="19"/>
+      <c r="AE110" s="19"/>
+      <c r="AF110" s="19"/>
+      <c r="AG110" s="19"/>
+      <c r="AH110" s="19"/>
+      <c r="AI110" s="19"/>
+      <c r="AJ110" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="N69:U70"/>
+  <mergeCells count="124">
+    <mergeCell ref="AQ52:AR53"/>
+    <mergeCell ref="AL35:AM35"/>
+    <mergeCell ref="AN35:AR35"/>
+    <mergeCell ref="AL37:AM37"/>
+    <mergeCell ref="AN37:AR37"/>
+    <mergeCell ref="AN49:AR50"/>
+    <mergeCell ref="AL28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AL31:AM31"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AL33:AM33"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AL21:AS22"/>
+    <mergeCell ref="AL24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AL26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="AC22:AD23"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="AG22:AH23"/>
+    <mergeCell ref="AI22:AJ23"/>
+    <mergeCell ref="AA20:AB21"/>
+    <mergeCell ref="AC20:AD21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="AG20:AH21"/>
+    <mergeCell ref="AI20:AJ21"/>
     <mergeCell ref="E28:L29"/>
     <mergeCell ref="M28:V29"/>
     <mergeCell ref="M66:N66"/>
@@ -3964,8 +7305,6 @@
     <mergeCell ref="P63:R63"/>
     <mergeCell ref="P59:R59"/>
     <mergeCell ref="M61:O61"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M65:N65"/>
     <mergeCell ref="B69:D71"/>
     <mergeCell ref="F31:H36"/>
     <mergeCell ref="F37:H37"/>
@@ -3990,6 +7329,50 @@
     <mergeCell ref="H8:J8"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="G81:M82"/>
+    <mergeCell ref="G83:M89"/>
+    <mergeCell ref="N69:U70"/>
+    <mergeCell ref="G90:M92"/>
+    <mergeCell ref="AA60:AB61"/>
+    <mergeCell ref="AC60:AD61"/>
+    <mergeCell ref="AE60:AE61"/>
+    <mergeCell ref="AF60:AF61"/>
+    <mergeCell ref="AA62:AB63"/>
+    <mergeCell ref="AC62:AD63"/>
+    <mergeCell ref="AE62:AE63"/>
+    <mergeCell ref="AF62:AF63"/>
+    <mergeCell ref="AA76:AJ77"/>
+    <mergeCell ref="AA79:AB79"/>
+    <mergeCell ref="AA81:AB81"/>
+    <mergeCell ref="AA83:AB83"/>
+    <mergeCell ref="AA85:AB85"/>
+    <mergeCell ref="AA87:AB87"/>
+    <mergeCell ref="AA89:AB89"/>
+    <mergeCell ref="AG60:AG61"/>
+    <mergeCell ref="AH60:AI61"/>
+    <mergeCell ref="AJ60:AJ61"/>
+    <mergeCell ref="AK60:AL61"/>
+    <mergeCell ref="AG62:AG63"/>
+    <mergeCell ref="AH62:AI63"/>
+    <mergeCell ref="AJ62:AJ63"/>
+    <mergeCell ref="AK62:AL63"/>
+    <mergeCell ref="AH106:AI107"/>
+    <mergeCell ref="AA91:AB91"/>
+    <mergeCell ref="AC79:AH79"/>
+    <mergeCell ref="AC81:AH81"/>
+    <mergeCell ref="AC83:AH83"/>
+    <mergeCell ref="AC85:AH85"/>
+    <mergeCell ref="AC87:AH87"/>
+    <mergeCell ref="AC89:AH89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
